--- a/our_ measurements.xlsx
+++ b/our_ measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazeedyousefalmalaq/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B4E850-77D7-DB4B-B389-DD1D3DDD392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADBA25F-5051-D14E-BE99-388FC28E13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CAF81E14-E0A6-0944-AA46-843577B0EA33}"/>
   </bookViews>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -452,9 +452,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1031,31 +1031,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1097,16 +1083,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1124,7 +1125,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5197,7 +5197,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
-          <c:min val="0"/>
+          <c:min val="6.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5751,6 +5751,8 @@
         <c:axId val="931185808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6032,7 +6034,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2640" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="2500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6042,7 +6044,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="2500"/>
               <a:t>(c) Power of matrix application with 500 matrix size </a:t>
             </a:r>
           </a:p>
@@ -6061,7 +6063,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2640" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="2500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6549,6 +6551,7 @@
         <c:crossAx val="1451074144"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -6583,7 +6586,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -19068,7 +19071,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{112C15A6-712D-A341-9CF7-1F71B305AC40}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{112C15A6-712D-A341-9CF7-1F71B305AC40}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -19193,7 +19196,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{979275F8-4801-B94F-92E5-1EA0FFB912A5}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{979275F8-4801-B94F-92E5-1EA0FFB912A5}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:O7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="55">
     <pivotField axis="axisRow" showAll="0">
@@ -19674,12 +19677,12 @@
       <selection activeCell="M112" sqref="M112:M121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:16">
+    <row r="1" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>4</v>
       </c>
@@ -19699,7 +19702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="11:16">
+    <row r="2" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -19719,7 +19722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="11:16">
+    <row r="3" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>5</v>
       </c>
@@ -19739,7 +19742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="11:16">
+    <row r="4" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>5</v>
       </c>
@@ -19759,7 +19762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="11:16">
+    <row r="5" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>5</v>
       </c>
@@ -19779,7 +19782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:16">
+    <row r="6" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -19799,7 +19802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="11:16">
+    <row r="7" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -19819,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="11:16">
+    <row r="8" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
         <v>5</v>
       </c>
@@ -19839,7 +19842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="11:16">
+    <row r="9" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
         <v>5</v>
       </c>
@@ -19859,7 +19862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="11:16">
+    <row r="10" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>5</v>
       </c>
@@ -19879,7 +19882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="11:16">
+    <row r="11" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
         <v>5</v>
       </c>
@@ -19899,7 +19902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="11:16">
+    <row r="12" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>5</v>
       </c>
@@ -19919,7 +19922,7 @@
         <v>6657</v>
       </c>
     </row>
-    <row r="13" spans="11:16">
+    <row r="13" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
         <v>5</v>
       </c>
@@ -19939,7 +19942,7 @@
         <v>6726</v>
       </c>
     </row>
-    <row r="14" spans="11:16">
+    <row r="14" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>5</v>
       </c>
@@ -19959,7 +19962,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="15" spans="11:16">
+    <row r="15" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>5</v>
       </c>
@@ -19979,7 +19982,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="16" spans="11:16">
+    <row r="16" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K16" t="s">
         <v>5</v>
       </c>
@@ -19999,7 +20002,7 @@
         <v>6711</v>
       </c>
     </row>
-    <row r="17" spans="11:16">
+    <row r="17" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>5</v>
       </c>
@@ -20019,7 +20022,7 @@
         <v>6706</v>
       </c>
     </row>
-    <row r="18" spans="11:16">
+    <row r="18" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>5</v>
       </c>
@@ -20039,7 +20042,7 @@
         <v>6708</v>
       </c>
     </row>
-    <row r="19" spans="11:16">
+    <row r="19" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>5</v>
       </c>
@@ -20059,7 +20062,7 @@
         <v>6713</v>
       </c>
     </row>
-    <row r="20" spans="11:16">
+    <row r="20" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>5</v>
       </c>
@@ -20079,7 +20082,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="21" spans="11:16">
+    <row r="21" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>5</v>
       </c>
@@ -20099,7 +20102,7 @@
         <v>6661</v>
       </c>
     </row>
-    <row r="22" spans="11:16">
+    <row r="22" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>5</v>
       </c>
@@ -20119,7 +20122,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="23" spans="11:16">
+    <row r="23" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
         <v>5</v>
       </c>
@@ -20139,7 +20142,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="24" spans="11:16">
+    <row r="24" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
         <v>5</v>
       </c>
@@ -20159,7 +20162,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="25" spans="11:16">
+    <row r="25" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
         <v>5</v>
       </c>
@@ -20179,7 +20182,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="26" spans="11:16">
+    <row r="26" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
         <v>5</v>
       </c>
@@ -20199,7 +20202,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="27" spans="11:16">
+    <row r="27" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>5</v>
       </c>
@@ -20219,7 +20222,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="11:16">
+    <row r="28" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
         <v>5</v>
       </c>
@@ -20239,7 +20242,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="11:16">
+    <row r="29" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
         <v>5</v>
       </c>
@@ -20259,7 +20262,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="30" spans="11:16">
+    <row r="30" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>5</v>
       </c>
@@ -20279,7 +20282,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="31" spans="11:16">
+    <row r="31" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>5</v>
       </c>
@@ -20299,7 +20302,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="32" spans="11:16">
+    <row r="32" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>6</v>
       </c>
@@ -20319,7 +20322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="11:16">
+    <row r="33" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
         <v>6</v>
       </c>
@@ -20339,7 +20342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="11:16">
+    <row r="34" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K34" t="s">
         <v>6</v>
       </c>
@@ -20359,7 +20362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="11:16">
+    <row r="35" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
         <v>6</v>
       </c>
@@ -20379,7 +20382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="11:16">
+    <row r="36" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K36" t="s">
         <v>6</v>
       </c>
@@ -20399,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="11:16">
+    <row r="37" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
         <v>6</v>
       </c>
@@ -20419,7 +20422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="11:16">
+    <row r="38" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K38" t="s">
         <v>6</v>
       </c>
@@ -20439,7 +20442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="11:16">
+    <row r="39" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K39" t="s">
         <v>6</v>
       </c>
@@ -20459,7 +20462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="11:16">
+    <row r="40" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K40" t="s">
         <v>6</v>
       </c>
@@ -20479,7 +20482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="11:16">
+    <row r="41" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>6</v>
       </c>
@@ -20499,7 +20502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="11:16">
+    <row r="42" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
         <v>6</v>
       </c>
@@ -20519,7 +20522,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="11:16">
+    <row r="43" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K43" t="s">
         <v>6</v>
       </c>
@@ -20539,7 +20542,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="11:16">
+    <row r="44" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
         <v>6</v>
       </c>
@@ -20559,7 +20562,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="45" spans="11:16">
+    <row r="45" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K45" t="s">
         <v>6</v>
       </c>
@@ -20579,7 +20582,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="11:16">
+    <row r="46" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>6</v>
       </c>
@@ -20599,7 +20602,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="11:16">
+    <row r="47" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K47" t="s">
         <v>6</v>
       </c>
@@ -20619,7 +20622,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="11:16">
+    <row r="48" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
         <v>6</v>
       </c>
@@ -20639,7 +20642,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="49" spans="11:16">
+    <row r="49" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
         <v>6</v>
       </c>
@@ -20659,7 +20662,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="11:16">
+    <row r="50" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
         <v>6</v>
       </c>
@@ -20679,7 +20682,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="51" spans="11:16">
+    <row r="51" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>6</v>
       </c>
@@ -20699,7 +20702,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="11:16">
+    <row r="52" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K52" t="s">
         <v>6</v>
       </c>
@@ -20719,7 +20722,7 @@
         <v>5165</v>
       </c>
     </row>
-    <row r="53" spans="11:16">
+    <row r="53" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
         <v>6</v>
       </c>
@@ -20739,7 +20742,7 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="54" spans="11:16">
+    <row r="54" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K54" t="s">
         <v>6</v>
       </c>
@@ -20759,7 +20762,7 @@
         <v>5155</v>
       </c>
     </row>
-    <row r="55" spans="11:16">
+    <row r="55" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K55" t="s">
         <v>6</v>
       </c>
@@ -20779,7 +20782,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="56" spans="11:16">
+    <row r="56" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K56" t="s">
         <v>6</v>
       </c>
@@ -20799,7 +20802,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="57" spans="11:16">
+    <row r="57" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K57" t="s">
         <v>6</v>
       </c>
@@ -20819,7 +20822,7 @@
         <v>5145</v>
       </c>
     </row>
-    <row r="58" spans="11:16">
+    <row r="58" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K58" t="s">
         <v>6</v>
       </c>
@@ -20839,7 +20842,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="59" spans="11:16">
+    <row r="59" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K59" t="s">
         <v>6</v>
       </c>
@@ -20859,7 +20862,7 @@
         <v>5174</v>
       </c>
     </row>
-    <row r="60" spans="11:16">
+    <row r="60" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K60" t="s">
         <v>6</v>
       </c>
@@ -20879,7 +20882,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="61" spans="11:16">
+    <row r="61" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K61" t="s">
         <v>6</v>
       </c>
@@ -20899,7 +20902,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="62" spans="11:16">
+    <row r="62" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K62" s="4" t="s">
         <v>15</v>
       </c>
@@ -20919,7 +20922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="11:16">
+    <row r="63" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K63" s="4" t="s">
         <v>15</v>
       </c>
@@ -20939,7 +20942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="11:16">
+    <row r="64" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K64" s="4" t="s">
         <v>15</v>
       </c>
@@ -20959,7 +20962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="11:16">
+    <row r="65" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K65" s="4" t="s">
         <v>15</v>
       </c>
@@ -20979,7 +20982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="11:16">
+    <row r="66" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K66" s="4" t="s">
         <v>15</v>
       </c>
@@ -20999,7 +21002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="11:16">
+    <row r="67" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K67" s="4" t="s">
         <v>15</v>
       </c>
@@ -21019,7 +21022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="11:16">
+    <row r="68" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K68" s="4" t="s">
         <v>15</v>
       </c>
@@ -21039,7 +21042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="11:16">
+    <row r="69" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K69" s="4" t="s">
         <v>15</v>
       </c>
@@ -21059,7 +21062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="11:16">
+    <row r="70" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K70" s="4" t="s">
         <v>15</v>
       </c>
@@ -21079,7 +21082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="11:16">
+    <row r="71" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K71" s="4" t="s">
         <v>15</v>
       </c>
@@ -21099,7 +21102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="11:16">
+    <row r="72" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K72" s="4" t="s">
         <v>15</v>
       </c>
@@ -21119,7 +21122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="11:16">
+    <row r="73" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K73" s="4" t="s">
         <v>15</v>
       </c>
@@ -21139,7 +21142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="11:16">
+    <row r="74" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K74" s="4" t="s">
         <v>15</v>
       </c>
@@ -21159,7 +21162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="11:16">
+    <row r="75" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K75" s="4" t="s">
         <v>15</v>
       </c>
@@ -21179,7 +21182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="11:16">
+    <row r="76" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K76" s="4" t="s">
         <v>15</v>
       </c>
@@ -21199,7 +21202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="11:16">
+    <row r="77" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K77" s="4" t="s">
         <v>15</v>
       </c>
@@ -21219,7 +21222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="11:16">
+    <row r="78" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K78" s="4" t="s">
         <v>15</v>
       </c>
@@ -21239,7 +21242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="11:16">
+    <row r="79" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K79" s="4" t="s">
         <v>15</v>
       </c>
@@ -21259,7 +21262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="11:16">
+    <row r="80" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K80" s="4" t="s">
         <v>15</v>
       </c>
@@ -21279,7 +21282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="11:16">
+    <row r="81" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K81" s="4" t="s">
         <v>15</v>
       </c>
@@ -21299,7 +21302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="11:16">
+    <row r="82" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K82" t="s">
         <v>15</v>
       </c>
@@ -21319,7 +21322,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="11:16">
+    <row r="83" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K83" t="s">
         <v>15</v>
       </c>
@@ -21339,7 +21342,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="11:16">
+    <row r="84" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K84" t="s">
         <v>15</v>
       </c>
@@ -21359,7 +21362,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="11:16">
+    <row r="85" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K85" t="s">
         <v>15</v>
       </c>
@@ -21379,7 +21382,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="11:16">
+    <row r="86" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K86" t="s">
         <v>15</v>
       </c>
@@ -21399,7 +21402,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="11:16">
+    <row r="87" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K87" t="s">
         <v>15</v>
       </c>
@@ -21419,7 +21422,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="11:16">
+    <row r="88" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K88" t="s">
         <v>15</v>
       </c>
@@ -21439,7 +21442,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="11:16">
+    <row r="89" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K89" t="s">
         <v>15</v>
       </c>
@@ -21459,7 +21462,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="11:16">
+    <row r="90" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K90" t="s">
         <v>15</v>
       </c>
@@ -21479,7 +21482,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="11:16">
+    <row r="91" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K91" t="s">
         <v>15</v>
       </c>
@@ -21499,7 +21502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="11:16">
+    <row r="92" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K92" t="s">
         <v>6</v>
       </c>
@@ -21519,7 +21522,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="93" spans="11:16">
+    <row r="93" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K93" t="s">
         <v>6</v>
       </c>
@@ -21539,7 +21542,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="94" spans="11:16">
+    <row r="94" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K94" t="s">
         <v>6</v>
       </c>
@@ -21559,7 +21562,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="11:16">
+    <row r="95" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K95" t="s">
         <v>6</v>
       </c>
@@ -21579,7 +21582,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="96" spans="11:16">
+    <row r="96" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K96" t="s">
         <v>6</v>
       </c>
@@ -21599,7 +21602,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="11:16">
+    <row r="97" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K97" t="s">
         <v>6</v>
       </c>
@@ -21619,7 +21622,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="11:16">
+    <row r="98" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K98" t="s">
         <v>6</v>
       </c>
@@ -21639,7 +21642,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="99" spans="11:16">
+    <row r="99" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K99" t="s">
         <v>6</v>
       </c>
@@ -21659,7 +21662,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="100" spans="11:16">
+    <row r="100" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K100" t="s">
         <v>6</v>
       </c>
@@ -21679,7 +21682,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="101" spans="11:16">
+    <row r="101" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K101" t="s">
         <v>6</v>
       </c>
@@ -21699,7 +21702,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="11:16">
+    <row r="102" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K102" t="s">
         <v>15</v>
       </c>
@@ -21719,7 +21722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="11:16">
+    <row r="103" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K103" t="s">
         <v>15</v>
       </c>
@@ -21739,7 +21742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="11:16">
+    <row r="104" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K104" t="s">
         <v>15</v>
       </c>
@@ -21759,7 +21762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="11:16">
+    <row r="105" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K105" t="s">
         <v>15</v>
       </c>
@@ -21779,7 +21782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="11:16">
+    <row r="106" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K106" t="s">
         <v>15</v>
       </c>
@@ -21799,7 +21802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="11:16">
+    <row r="107" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K107" t="s">
         <v>15</v>
       </c>
@@ -21819,7 +21822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="11:16">
+    <row r="108" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K108" t="s">
         <v>15</v>
       </c>
@@ -21839,7 +21842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="11:16">
+    <row r="109" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K109" t="s">
         <v>15</v>
       </c>
@@ -21859,7 +21862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="11:16">
+    <row r="110" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K110" t="s">
         <v>15</v>
       </c>
@@ -21879,7 +21882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="11:16">
+    <row r="111" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K111" t="s">
         <v>15</v>
       </c>
@@ -21899,7 +21902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="11:16">
+    <row r="112" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K112" t="s">
         <v>5</v>
       </c>
@@ -21919,7 +21922,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="113" spans="11:16">
+    <row r="113" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K113" t="s">
         <v>5</v>
       </c>
@@ -21939,7 +21942,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="114" spans="11:16">
+    <row r="114" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K114" t="s">
         <v>5</v>
       </c>
@@ -21959,7 +21962,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="115" spans="11:16">
+    <row r="115" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K115" t="s">
         <v>5</v>
       </c>
@@ -21979,7 +21982,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="116" spans="11:16">
+    <row r="116" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K116" t="s">
         <v>5</v>
       </c>
@@ -21999,7 +22002,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="117" spans="11:16">
+    <row r="117" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K117" t="s">
         <v>5</v>
       </c>
@@ -22019,7 +22022,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="118" spans="11:16">
+    <row r="118" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K118" t="s">
         <v>5</v>
       </c>
@@ -22039,7 +22042,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="119" spans="11:16">
+    <row r="119" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K119" t="s">
         <v>5</v>
       </c>
@@ -22059,7 +22062,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="120" spans="11:16">
+    <row r="120" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K120" t="s">
         <v>5</v>
       </c>
@@ -22079,7 +22082,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="11:16">
+    <row r="121" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K121" t="s">
         <v>5</v>
       </c>
@@ -22099,7 +22102,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="122" spans="11:16">
+    <row r="122" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K122" t="s">
         <v>6</v>
       </c>
@@ -22119,7 +22122,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="11:16">
+    <row r="123" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K123" t="s">
         <v>6</v>
       </c>
@@ -22139,7 +22142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="11:16">
+    <row r="124" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K124" t="s">
         <v>6</v>
       </c>
@@ -22159,7 +22162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="11:16">
+    <row r="125" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K125" t="s">
         <v>6</v>
       </c>
@@ -22179,7 +22182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="11:16">
+    <row r="126" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K126" t="s">
         <v>6</v>
       </c>
@@ -22199,7 +22202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="11:16">
+    <row r="127" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K127" t="s">
         <v>6</v>
       </c>
@@ -22219,7 +22222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="11:16">
+    <row r="128" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K128" t="s">
         <v>6</v>
       </c>
@@ -22239,7 +22242,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="11:16">
+    <row r="129" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K129" t="s">
         <v>6</v>
       </c>
@@ -22259,7 +22262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="11:16">
+    <row r="130" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K130" t="s">
         <v>6</v>
       </c>
@@ -22279,7 +22282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="11:16">
+    <row r="131" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K131" t="s">
         <v>6</v>
       </c>
@@ -22299,7 +22302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="11:16">
+    <row r="132" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K132" t="s">
         <v>15</v>
       </c>
@@ -22319,7 +22322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="11:16">
+    <row r="133" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K133" t="s">
         <v>15</v>
       </c>
@@ -22339,7 +22342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="11:16">
+    <row r="134" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K134" t="s">
         <v>15</v>
       </c>
@@ -22359,7 +22362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="11:16">
+    <row r="135" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K135" t="s">
         <v>15</v>
       </c>
@@ -22379,7 +22382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="11:16">
+    <row r="136" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K136" t="s">
         <v>15</v>
       </c>
@@ -22399,7 +22402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="11:16">
+    <row r="137" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K137" t="s">
         <v>15</v>
       </c>
@@ -22419,7 +22422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="11:16">
+    <row r="138" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K138" t="s">
         <v>15</v>
       </c>
@@ -22439,7 +22442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="11:16">
+    <row r="139" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K139" t="s">
         <v>15</v>
       </c>
@@ -22459,7 +22462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="11:16">
+    <row r="140" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K140" t="s">
         <v>15</v>
       </c>
@@ -22479,7 +22482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="11:16">
+    <row r="141" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K141" t="s">
         <v>15</v>
       </c>
@@ -22499,7 +22502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="11:16">
+    <row r="142" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K142" t="s">
         <v>5</v>
       </c>
@@ -22519,7 +22522,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="11:16">
+    <row r="143" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K143" t="s">
         <v>5</v>
       </c>
@@ -22539,7 +22542,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="11:16">
+    <row r="144" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K144" t="s">
         <v>5</v>
       </c>
@@ -22559,7 +22562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="11:16">
+    <row r="145" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K145" t="s">
         <v>5</v>
       </c>
@@ -22579,7 +22582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="11:16">
+    <row r="146" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K146" t="s">
         <v>5</v>
       </c>
@@ -22599,7 +22602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="11:16">
+    <row r="147" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K147" t="s">
         <v>5</v>
       </c>
@@ -22619,7 +22622,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="11:16">
+    <row r="148" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K148" t="s">
         <v>5</v>
       </c>
@@ -22639,7 +22642,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="11:16">
+    <row r="149" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K149" t="s">
         <v>5</v>
       </c>
@@ -22659,7 +22662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="11:16">
+    <row r="150" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K150" t="s">
         <v>5</v>
       </c>
@@ -22679,7 +22682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="11:16">
+    <row r="151" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K151" t="s">
         <v>5</v>
       </c>
@@ -22709,11 +22712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6E6267-47EF-0E46-B73D-4EB889DF4CC4}">
   <dimension ref="A3:AI181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="25" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AH59" sqref="AH59"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -22726,7 +22729,7 @@
     <col min="34" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -22743,7 +22746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -22760,7 +22763,7 @@
         <v>1241.78</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>500</v>
       </c>
@@ -22777,7 +22780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1000</v>
       </c>
@@ -22794,7 +22797,7 @@
         <v>501.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2000</v>
       </c>
@@ -22811,7 +22814,7 @@
         <v>5156.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -22828,7 +22831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>89</v>
       </c>
@@ -22845,7 +22848,7 @@
         <v>462.6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -22862,7 +22865,7 @@
         <v>1611.64</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>500</v>
       </c>
@@ -22879,7 +22882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1000</v>
       </c>
@@ -22896,7 +22899,7 @@
         <v>647.79999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2000</v>
       </c>
@@ -22913,7 +22916,7 @@
         <v>6692.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -22930,7 +22933,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
@@ -22947,7 +22950,7 @@
         <v>598.29999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -22964,7 +22967,7 @@
         <v>43.48</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>500</v>
       </c>
@@ -22981,7 +22984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1000</v>
       </c>
@@ -22998,7 +23001,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2000</v>
       </c>
@@ -23015,7 +23018,7 @@
         <v>183.4</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
@@ -23032,7 +23035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>89</v>
       </c>
@@ -23049,7 +23052,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -23066,16 +23069,16 @@
         <v>965.63333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>109</v>
       </c>
@@ -23098,7 +23101,7 @@
       <c r="AH27" s="12"/>
       <c r="AI27" s="12"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>500</v>
       </c>
@@ -23126,7 +23129,7 @@
       <c r="AH28" s="28"/>
       <c r="AI28" s="28"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
         <v>1000</v>
       </c>
@@ -23154,7 +23157,7 @@
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>2000</v>
       </c>
@@ -23182,7 +23185,7 @@
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>90</v>
       </c>
@@ -23210,7 +23213,7 @@
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>89</v>
       </c>
@@ -23238,7 +23241,7 @@
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -23267,7 +23270,7 @@
       <c r="Z38" s="51"/>
       <c r="AA38" s="51"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="47"/>
       <c r="C39" s="48"/>
@@ -23296,180 +23299,180 @@
       <c r="Z39" s="49"/>
       <c r="AA39" s="51"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
       <c r="B40" s="30"/>
       <c r="Z40" s="31"/>
       <c r="AA40" s="51"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
       <c r="B41" s="30"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="95"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="74"/>
       <c r="AA41" s="51"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
       <c r="B42" s="30"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="95"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="74"/>
       <c r="AA42" s="51"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
       <c r="B43" s="30"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="95"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="74"/>
       <c r="AA43" s="51"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
       <c r="B44" s="30"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="95"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="74"/>
       <c r="AA44" s="51"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="30"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="95"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="74"/>
       <c r="AA45" s="51"/>
     </row>
-    <row r="46" spans="1:27" ht="17" thickBot="1">
+    <row r="46" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
       <c r="B46" s="30"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="95"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="74"/>
       <c r="AA46" s="51"/>
     </row>
-    <row r="47" spans="1:27" ht="17" thickBot="1">
+    <row r="47" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-      <c r="Z47" s="95"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="91"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="74"/>
       <c r="AA47" s="51"/>
     </row>
-    <row r="48" spans="1:27" ht="17" thickBot="1">
+    <row r="48" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="30"/>
       <c r="C48" s="10" t="s">
@@ -23484,27 +23487,27 @@
       <c r="F48" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
-      <c r="Z48" s="95"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="74"/>
       <c r="AA48" s="51"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="51"/>
       <c r="B49" s="30"/>
       <c r="C49" s="37" t="s">
@@ -23519,27 +23522,27 @@
       <c r="F49" s="21">
         <v>24.541814460000001</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="95"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="74"/>
       <c r="AA49" s="51"/>
     </row>
-    <row r="50" spans="1:27" ht="17" thickBot="1">
+    <row r="50" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="30"/>
       <c r="C50" s="38" t="s">
@@ -23554,83 +23557,83 @@
       <c r="F50" s="22">
         <v>85.075222889999992</v>
       </c>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-      <c r="Z50" s="95"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="74"/>
       <c r="AA50" s="51"/>
     </row>
-    <row r="51" spans="1:27" ht="17" thickBot="1">
+    <row r="51" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="30"/>
       <c r="C51" s="54"/>
       <c r="D51" s="55"/>
       <c r="E51" s="56"/>
       <c r="F51" s="57"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-      <c r="Z51" s="95"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="74"/>
       <c r="AA51" s="51"/>
     </row>
-    <row r="52" spans="1:27" ht="17" thickBot="1">
+    <row r="52" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="95"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="91"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="74"/>
       <c r="AA52" s="51"/>
     </row>
-    <row r="53" spans="1:27" ht="17" thickBot="1">
+    <row r="53" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="30"/>
       <c r="C53" s="10" t="s">
@@ -23645,27 +23648,27 @@
       <c r="F53" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="95"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="74"/>
       <c r="AA53" s="51"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="30"/>
       <c r="C54" s="36" t="s">
@@ -23680,27 +23683,27 @@
       <c r="F54" s="43">
         <v>5.8868937900000002</v>
       </c>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="95"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="74"/>
       <c r="AA54" s="51"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
       <c r="B55" s="30"/>
       <c r="C55" s="36" t="s">
@@ -23715,27 +23718,27 @@
       <c r="F55" s="43">
         <v>58.656559600000001</v>
       </c>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="94"/>
-      <c r="T55" s="94"/>
-      <c r="U55" s="94"/>
-      <c r="V55" s="94"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="94"/>
-      <c r="Y55" s="94"/>
-      <c r="Z55" s="95"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="74"/>
       <c r="AA55" s="51"/>
     </row>
-    <row r="56" spans="1:27" ht="17" thickBot="1">
+    <row r="56" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
       <c r="B56" s="30"/>
       <c r="C56" s="44" t="s">
@@ -23750,535 +23753,535 @@
       <c r="F56" s="46">
         <v>646.02253781999991</v>
       </c>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="94"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
-      <c r="W56" s="94"/>
-      <c r="X56" s="94"/>
-      <c r="Y56" s="94"/>
-      <c r="Z56" s="95"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="74"/>
       <c r="AA56" s="51"/>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
       <c r="B57" s="30"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
-      <c r="X57" s="94"/>
-      <c r="Y57" s="94"/>
-      <c r="Z57" s="95"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="74"/>
       <c r="AA57" s="51"/>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
       <c r="B58" s="32"/>
       <c r="C58" s="3"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="94"/>
-      <c r="T58" s="94"/>
-      <c r="U58" s="94"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="94"/>
-      <c r="Y58" s="94"/>
-      <c r="Z58" s="95"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73"/>
+      <c r="W58" s="73"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="73"/>
+      <c r="Z58" s="74"/>
       <c r="AA58" s="51"/>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="51"/>
       <c r="B59" s="30"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="94"/>
-      <c r="T59" s="94"/>
-      <c r="U59" s="94"/>
-      <c r="V59" s="94"/>
-      <c r="W59" s="94"/>
-      <c r="X59" s="94"/>
-      <c r="Y59" s="94"/>
-      <c r="Z59" s="95"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="74"/>
       <c r="AA59" s="51"/>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="51"/>
       <c r="B60" s="30"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="94"/>
-      <c r="T60" s="94"/>
-      <c r="U60" s="94"/>
-      <c r="V60" s="94"/>
-      <c r="W60" s="94"/>
-      <c r="X60" s="94"/>
-      <c r="Y60" s="94"/>
-      <c r="Z60" s="95"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="73"/>
+      <c r="Z60" s="74"/>
       <c r="AA60" s="51"/>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
       <c r="B61" s="30"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="94"/>
-      <c r="O61" s="94"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="94"/>
-      <c r="R61" s="94"/>
-      <c r="S61" s="94"/>
-      <c r="T61" s="94"/>
-      <c r="U61" s="94"/>
-      <c r="V61" s="94"/>
-      <c r="W61" s="94"/>
-      <c r="X61" s="94"/>
-      <c r="Y61" s="94"/>
-      <c r="Z61" s="95"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="74"/>
       <c r="AA61" s="51"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="51"/>
       <c r="B62" s="30"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="94"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="94"/>
-      <c r="T62" s="94"/>
-      <c r="U62" s="94"/>
-      <c r="V62" s="94"/>
-      <c r="W62" s="94"/>
-      <c r="X62" s="94"/>
-      <c r="Y62" s="94"/>
-      <c r="Z62" s="95"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="73"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="73"/>
+      <c r="Z62" s="74"/>
       <c r="AA62" s="51"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
       <c r="B63" s="30"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="94"/>
-      <c r="M63" s="94"/>
-      <c r="N63" s="94"/>
-      <c r="O63" s="94"/>
-      <c r="P63" s="94"/>
-      <c r="Q63" s="94"/>
-      <c r="R63" s="94"/>
-      <c r="S63" s="94"/>
-      <c r="T63" s="94"/>
-      <c r="U63" s="94"/>
-      <c r="V63" s="94"/>
-      <c r="W63" s="94"/>
-      <c r="X63" s="94"/>
-      <c r="Y63" s="94"/>
-      <c r="Z63" s="95"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="73"/>
+      <c r="W63" s="73"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="73"/>
+      <c r="Z63" s="74"/>
       <c r="AA63" s="51"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
       <c r="B64" s="30"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="94"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="94"/>
-      <c r="M64" s="94"/>
-      <c r="N64" s="94"/>
-      <c r="O64" s="94"/>
-      <c r="P64" s="94"/>
-      <c r="Q64" s="94"/>
-      <c r="R64" s="94"/>
-      <c r="S64" s="94"/>
-      <c r="T64" s="94"/>
-      <c r="U64" s="94"/>
-      <c r="V64" s="94"/>
-      <c r="W64" s="94"/>
-      <c r="X64" s="94"/>
-      <c r="Y64" s="94"/>
-      <c r="Z64" s="95"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="73"/>
+      <c r="W64" s="73"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="73"/>
+      <c r="Z64" s="74"/>
       <c r="AA64" s="51"/>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="51"/>
       <c r="B65" s="30"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
-      <c r="O65" s="94"/>
-      <c r="P65" s="94"/>
-      <c r="Q65" s="94"/>
-      <c r="R65" s="94"/>
-      <c r="S65" s="94"/>
-      <c r="T65" s="94"/>
-      <c r="U65" s="94"/>
-      <c r="V65" s="94"/>
-      <c r="W65" s="94"/>
-      <c r="X65" s="94"/>
-      <c r="Y65" s="94"/>
-      <c r="Z65" s="95"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="73"/>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="74"/>
       <c r="AA65" s="51"/>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="51"/>
       <c r="B66" s="30"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="94"/>
-      <c r="M66" s="94"/>
-      <c r="N66" s="94"/>
-      <c r="O66" s="94"/>
-      <c r="P66" s="94"/>
-      <c r="Q66" s="94"/>
-      <c r="R66" s="94"/>
-      <c r="S66" s="94"/>
-      <c r="T66" s="94"/>
-      <c r="U66" s="94"/>
-      <c r="V66" s="94"/>
-      <c r="W66" s="94"/>
-      <c r="X66" s="94"/>
-      <c r="Y66" s="94"/>
-      <c r="Z66" s="95"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="73"/>
+      <c r="U66" s="73"/>
+      <c r="V66" s="73"/>
+      <c r="W66" s="73"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="73"/>
+      <c r="Z66" s="74"/>
       <c r="AA66" s="51"/>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="51"/>
       <c r="B67" s="30"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="94"/>
-      <c r="S67" s="94"/>
-      <c r="T67" s="94"/>
-      <c r="U67" s="94"/>
-      <c r="V67" s="94"/>
-      <c r="W67" s="94"/>
-      <c r="X67" s="94"/>
-      <c r="Y67" s="94"/>
-      <c r="Z67" s="95"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="73"/>
+      <c r="U67" s="73"/>
+      <c r="V67" s="73"/>
+      <c r="W67" s="73"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="73"/>
+      <c r="Z67" s="74"/>
       <c r="AA67" s="51"/>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="51"/>
       <c r="B68" s="30"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="94"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="94"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="94"/>
-      <c r="Q68" s="94"/>
-      <c r="R68" s="94"/>
-      <c r="S68" s="94"/>
-      <c r="T68" s="94"/>
-      <c r="U68" s="94"/>
-      <c r="V68" s="94"/>
-      <c r="W68" s="94"/>
-      <c r="X68" s="94"/>
-      <c r="Y68" s="94"/>
-      <c r="Z68" s="95"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="73"/>
+      <c r="T68" s="73"/>
+      <c r="U68" s="73"/>
+      <c r="V68" s="73"/>
+      <c r="W68" s="73"/>
+      <c r="X68" s="73"/>
+      <c r="Y68" s="73"/>
+      <c r="Z68" s="74"/>
       <c r="AA68" s="51"/>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="51"/>
       <c r="B69" s="30"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="94"/>
-      <c r="O69" s="94"/>
-      <c r="P69" s="94"/>
-      <c r="Q69" s="94"/>
-      <c r="R69" s="94"/>
-      <c r="S69" s="94"/>
-      <c r="T69" s="94"/>
-      <c r="U69" s="94"/>
-      <c r="V69" s="94"/>
-      <c r="W69" s="94"/>
-      <c r="X69" s="94"/>
-      <c r="Y69" s="94"/>
-      <c r="Z69" s="95"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="73"/>
+      <c r="U69" s="73"/>
+      <c r="V69" s="73"/>
+      <c r="W69" s="73"/>
+      <c r="X69" s="73"/>
+      <c r="Y69" s="73"/>
+      <c r="Z69" s="74"/>
       <c r="AA69" s="51"/>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="51"/>
       <c r="B70" s="30"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
-      <c r="O70" s="94"/>
-      <c r="P70" s="94"/>
-      <c r="Q70" s="94"/>
-      <c r="R70" s="94"/>
-      <c r="S70" s="94"/>
-      <c r="T70" s="94"/>
-      <c r="U70" s="94"/>
-      <c r="V70" s="94"/>
-      <c r="W70" s="94"/>
-      <c r="X70" s="94"/>
-      <c r="Y70" s="94"/>
-      <c r="Z70" s="95"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="U70" s="73"/>
+      <c r="V70" s="73"/>
+      <c r="W70" s="73"/>
+      <c r="X70" s="73"/>
+      <c r="Y70" s="73"/>
+      <c r="Z70" s="74"/>
       <c r="AA70" s="51"/>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="51"/>
       <c r="B71" s="30"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="94"/>
-      <c r="T71" s="94"/>
-      <c r="U71" s="94"/>
-      <c r="V71" s="94"/>
-      <c r="W71" s="94"/>
-      <c r="X71" s="94"/>
-      <c r="Y71" s="94"/>
-      <c r="Z71" s="95"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="73"/>
+      <c r="V71" s="73"/>
+      <c r="W71" s="73"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="73"/>
+      <c r="Z71" s="74"/>
       <c r="AA71" s="51"/>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="51"/>
       <c r="B72" s="30"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="94"/>
-      <c r="U72" s="94"/>
-      <c r="V72" s="94"/>
-      <c r="W72" s="94"/>
-      <c r="X72" s="94"/>
-      <c r="Y72" s="94"/>
-      <c r="Z72" s="95"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="73"/>
+      <c r="V72" s="73"/>
+      <c r="W72" s="73"/>
+      <c r="X72" s="73"/>
+      <c r="Y72" s="73"/>
+      <c r="Z72" s="74"/>
       <c r="AA72" s="51"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="51"/>
       <c r="B73" s="30"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
-      <c r="O73" s="94"/>
-      <c r="P73" s="94"/>
-      <c r="Q73" s="94"/>
-      <c r="R73" s="94"/>
-      <c r="S73" s="94"/>
-      <c r="T73" s="94"/>
-      <c r="U73" s="94"/>
-      <c r="V73" s="94"/>
-      <c r="W73" s="94"/>
-      <c r="X73" s="94"/>
-      <c r="Y73" s="94"/>
-      <c r="Z73" s="95"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="W73" s="73"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="74"/>
       <c r="AA73" s="51"/>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="51"/>
       <c r="B74" s="30"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="94"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
-      <c r="O74" s="94"/>
-      <c r="P74" s="94"/>
-      <c r="Q74" s="94"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="94"/>
-      <c r="T74" s="94"/>
-      <c r="U74" s="94"/>
-      <c r="V74" s="94"/>
-      <c r="W74" s="94"/>
-      <c r="X74" s="94"/>
-      <c r="Y74" s="94"/>
-      <c r="Z74" s="95"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+      <c r="V74" s="73"/>
+      <c r="W74" s="73"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="73"/>
+      <c r="Z74" s="74"/>
       <c r="AA74" s="51"/>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="51"/>
       <c r="B75" s="30"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-      <c r="O75" s="94"/>
-      <c r="P75" s="94"/>
-      <c r="Q75" s="94"/>
-      <c r="R75" s="94"/>
-      <c r="S75" s="94"/>
-      <c r="T75" s="94"/>
-      <c r="U75" s="94"/>
-      <c r="V75" s="94"/>
-      <c r="W75" s="94"/>
-      <c r="X75" s="94"/>
-      <c r="Y75" s="94"/>
-      <c r="Z75" s="95"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="73"/>
+      <c r="W75" s="73"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="73"/>
+      <c r="Z75" s="74"/>
       <c r="AA75" s="51"/>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="51"/>
       <c r="B76" s="30"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
-      <c r="O76" s="94"/>
-      <c r="P76" s="94"/>
-      <c r="Q76" s="94"/>
-      <c r="R76" s="94"/>
-      <c r="S76" s="94"/>
-      <c r="T76" s="94"/>
-      <c r="U76" s="94"/>
-      <c r="V76" s="94"/>
-      <c r="W76" s="94"/>
-      <c r="X76" s="94"/>
-      <c r="Y76" s="94"/>
-      <c r="Z76" s="95"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="73"/>
+      <c r="V76" s="73"/>
+      <c r="W76" s="73"/>
+      <c r="X76" s="73"/>
+      <c r="Y76" s="73"/>
+      <c r="Z76" s="74"/>
       <c r="AA76" s="51"/>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="51"/>
       <c r="B77" s="32"/>
       <c r="C77" s="3"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
-      <c r="O77" s="94"/>
-      <c r="P77" s="94"/>
-      <c r="Q77" s="94"/>
-      <c r="R77" s="94"/>
-      <c r="S77" s="94"/>
-      <c r="T77" s="94"/>
-      <c r="U77" s="94"/>
-      <c r="V77" s="94"/>
-      <c r="W77" s="94"/>
-      <c r="X77" s="94"/>
-      <c r="Y77" s="94"/>
-      <c r="Z77" s="95"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="73"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+      <c r="V77" s="73"/>
+      <c r="W77" s="73"/>
+      <c r="X77" s="73"/>
+      <c r="Y77" s="73"/>
+      <c r="Z77" s="74"/>
       <c r="AA77" s="51"/>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
       <c r="B78" s="30"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
-      <c r="O78" s="94"/>
-      <c r="P78" s="94"/>
-      <c r="Q78" s="94"/>
-      <c r="R78" s="94"/>
-      <c r="S78" s="94"/>
-      <c r="T78" s="94"/>
-      <c r="U78" s="94"/>
-      <c r="V78" s="94"/>
-      <c r="W78" s="94"/>
-      <c r="X78" s="94"/>
-      <c r="Y78" s="94"/>
-      <c r="Z78" s="95"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
+      <c r="U78" s="73"/>
+      <c r="V78" s="73"/>
+      <c r="W78" s="73"/>
+      <c r="X78" s="73"/>
+      <c r="Y78" s="73"/>
+      <c r="Z78" s="74"/>
       <c r="AA78" s="51"/>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
       <c r="B79" s="50"/>
       <c r="C79" s="34"/>
@@ -24287,27 +24290,27 @@
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="96"/>
-      <c r="T79" s="96"/>
-      <c r="U79" s="96"/>
-      <c r="V79" s="96"/>
-      <c r="W79" s="96"/>
-      <c r="X79" s="96"/>
-      <c r="Y79" s="96"/>
-      <c r="Z79" s="97"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="75"/>
+      <c r="T79" s="75"/>
+      <c r="U79" s="75"/>
+      <c r="V79" s="75"/>
+      <c r="W79" s="75"/>
+      <c r="X79" s="75"/>
+      <c r="Y79" s="75"/>
+      <c r="Z79" s="76"/>
       <c r="AA79" s="51"/>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="51"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -24336,16 +24339,16 @@
       <c r="Z80" s="51"/>
       <c r="AA80" s="51"/>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="M85" s="4"/>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="M87" s="4"/>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -24381,7 +24384,7 @@
       <c r="AG92" s="55"/>
       <c r="AH92" s="55"/>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="55"/>
       <c r="B93" s="47"/>
       <c r="C93" s="48"/>
@@ -24417,139 +24420,139 @@
       <c r="AG93" s="49"/>
       <c r="AH93" s="55"/>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="55"/>
       <c r="B94" s="30"/>
-      <c r="O94" s="94"/>
-      <c r="P94" s="94"/>
-      <c r="Q94" s="94"/>
-      <c r="R94" s="94"/>
-      <c r="S94" s="94"/>
-      <c r="T94" s="94"/>
-      <c r="U94" s="94"/>
-      <c r="V94" s="94"/>
-      <c r="W94" s="94"/>
-      <c r="X94" s="94"/>
-      <c r="Y94" s="94"/>
-      <c r="Z94" s="94"/>
-      <c r="AA94" s="94"/>
-      <c r="AB94" s="94"/>
-      <c r="AC94" s="94"/>
-      <c r="AD94" s="94"/>
-      <c r="AE94" s="94"/>
-      <c r="AF94" s="94"/>
+      <c r="O94" s="73"/>
+      <c r="P94" s="73"/>
+      <c r="Q94" s="73"/>
+      <c r="R94" s="73"/>
+      <c r="S94" s="73"/>
+      <c r="T94" s="73"/>
+      <c r="U94" s="73"/>
+      <c r="V94" s="73"/>
+      <c r="W94" s="73"/>
+      <c r="X94" s="73"/>
+      <c r="Y94" s="73"/>
+      <c r="Z94" s="73"/>
+      <c r="AA94" s="73"/>
+      <c r="AB94" s="73"/>
+      <c r="AC94" s="73"/>
+      <c r="AD94" s="73"/>
+      <c r="AE94" s="73"/>
+      <c r="AF94" s="73"/>
       <c r="AG94" s="31"/>
       <c r="AH94" s="55"/>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="55"/>
       <c r="B95" s="30"/>
-      <c r="O95" s="94"/>
-      <c r="P95" s="94"/>
-      <c r="Q95" s="94"/>
-      <c r="R95" s="94"/>
-      <c r="S95" s="94"/>
-      <c r="T95" s="94"/>
-      <c r="U95" s="94"/>
-      <c r="V95" s="94"/>
-      <c r="W95" s="94"/>
-      <c r="X95" s="94"/>
-      <c r="Y95" s="94"/>
-      <c r="Z95" s="94"/>
-      <c r="AA95" s="94"/>
-      <c r="AB95" s="94"/>
-      <c r="AC95" s="94"/>
-      <c r="AD95" s="94"/>
-      <c r="AE95" s="94"/>
-      <c r="AF95" s="94"/>
+      <c r="O95" s="73"/>
+      <c r="P95" s="73"/>
+      <c r="Q95" s="73"/>
+      <c r="R95" s="73"/>
+      <c r="S95" s="73"/>
+      <c r="T95" s="73"/>
+      <c r="U95" s="73"/>
+      <c r="V95" s="73"/>
+      <c r="W95" s="73"/>
+      <c r="X95" s="73"/>
+      <c r="Y95" s="73"/>
+      <c r="Z95" s="73"/>
+      <c r="AA95" s="73"/>
+      <c r="AB95" s="73"/>
+      <c r="AC95" s="73"/>
+      <c r="AD95" s="73"/>
+      <c r="AE95" s="73"/>
+      <c r="AF95" s="73"/>
       <c r="AG95" s="31"/>
       <c r="AH95" s="55"/>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="55"/>
       <c r="B96" s="30"/>
-      <c r="O96" s="94"/>
-      <c r="P96" s="94"/>
-      <c r="Q96" s="94"/>
-      <c r="R96" s="94"/>
-      <c r="S96" s="94"/>
-      <c r="T96" s="94"/>
-      <c r="U96" s="94"/>
-      <c r="V96" s="94"/>
-      <c r="W96" s="94"/>
-      <c r="X96" s="94"/>
-      <c r="Y96" s="94"/>
-      <c r="Z96" s="94"/>
-      <c r="AA96" s="94"/>
-      <c r="AB96" s="94"/>
-      <c r="AC96" s="94"/>
-      <c r="AD96" s="94"/>
-      <c r="AE96" s="94"/>
-      <c r="AF96" s="94"/>
+      <c r="O96" s="73"/>
+      <c r="P96" s="73"/>
+      <c r="Q96" s="73"/>
+      <c r="R96" s="73"/>
+      <c r="S96" s="73"/>
+      <c r="T96" s="73"/>
+      <c r="U96" s="73"/>
+      <c r="V96" s="73"/>
+      <c r="W96" s="73"/>
+      <c r="X96" s="73"/>
+      <c r="Y96" s="73"/>
+      <c r="Z96" s="73"/>
+      <c r="AA96" s="73"/>
+      <c r="AB96" s="73"/>
+      <c r="AC96" s="73"/>
+      <c r="AD96" s="73"/>
+      <c r="AE96" s="73"/>
+      <c r="AF96" s="73"/>
       <c r="AG96" s="31"/>
       <c r="AH96" s="55"/>
     </row>
-    <row r="97" spans="1:34" ht="17" thickBot="1">
+    <row r="97" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
       <c r="B97" s="30"/>
-      <c r="O97" s="94"/>
-      <c r="P97" s="94"/>
-      <c r="Q97" s="94"/>
-      <c r="R97" s="94"/>
-      <c r="S97" s="94"/>
-      <c r="T97" s="94"/>
-      <c r="U97" s="94"/>
-      <c r="V97" s="94"/>
-      <c r="W97" s="94"/>
-      <c r="X97" s="94"/>
-      <c r="Y97" s="94"/>
-      <c r="Z97" s="94"/>
-      <c r="AA97" s="94"/>
-      <c r="AB97" s="94"/>
-      <c r="AC97" s="94"/>
-      <c r="AD97" s="94"/>
-      <c r="AE97" s="94"/>
-      <c r="AF97" s="94"/>
+      <c r="O97" s="73"/>
+      <c r="P97" s="73"/>
+      <c r="Q97" s="73"/>
+      <c r="R97" s="73"/>
+      <c r="S97" s="73"/>
+      <c r="T97" s="73"/>
+      <c r="U97" s="73"/>
+      <c r="V97" s="73"/>
+      <c r="W97" s="73"/>
+      <c r="X97" s="73"/>
+      <c r="Y97" s="73"/>
+      <c r="Z97" s="73"/>
+      <c r="AA97" s="73"/>
+      <c r="AB97" s="73"/>
+      <c r="AC97" s="73"/>
+      <c r="AD97" s="73"/>
+      <c r="AE97" s="73"/>
+      <c r="AF97" s="73"/>
       <c r="AG97" s="31"/>
       <c r="AH97" s="55"/>
     </row>
-    <row r="98" spans="1:34" ht="17" thickBot="1">
+    <row r="98" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="55"/>
       <c r="B98" s="30"/>
-      <c r="C98" s="75" t="s">
+      <c r="C98" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="77"/>
-      <c r="I98" s="78" t="s">
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="91"/>
+      <c r="I98" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="J98" s="79"/>
-      <c r="K98" s="79"/>
-      <c r="L98" s="80"/>
-      <c r="O98" s="94"/>
-      <c r="P98" s="94"/>
-      <c r="Q98" s="94"/>
-      <c r="R98" s="94"/>
-      <c r="S98" s="94"/>
-      <c r="T98" s="94"/>
-      <c r="U98" s="94"/>
-      <c r="V98" s="94"/>
-      <c r="W98" s="94"/>
-      <c r="X98" s="94"/>
-      <c r="Y98" s="94"/>
-      <c r="Z98" s="94"/>
-      <c r="AA98" s="94"/>
-      <c r="AB98" s="94"/>
-      <c r="AC98" s="94"/>
-      <c r="AD98" s="94"/>
-      <c r="AE98" s="94"/>
-      <c r="AF98" s="94"/>
+      <c r="J98" s="97"/>
+      <c r="K98" s="97"/>
+      <c r="L98" s="98"/>
+      <c r="O98" s="73"/>
+      <c r="P98" s="73"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="73"/>
+      <c r="T98" s="73"/>
+      <c r="U98" s="73"/>
+      <c r="V98" s="73"/>
+      <c r="W98" s="73"/>
+      <c r="X98" s="73"/>
+      <c r="Y98" s="73"/>
+      <c r="Z98" s="73"/>
+      <c r="AA98" s="73"/>
+      <c r="AB98" s="73"/>
+      <c r="AC98" s="73"/>
+      <c r="AD98" s="73"/>
+      <c r="AE98" s="73"/>
+      <c r="AF98" s="73"/>
       <c r="AG98" s="31"/>
       <c r="AH98" s="55"/>
     </row>
-    <row r="99" spans="1:34" ht="17" thickBot="1">
+    <row r="99" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="55"/>
       <c r="B99" s="30"/>
       <c r="C99" s="10" t="s">
@@ -24576,31 +24579,31 @@
       <c r="L99" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O99" s="94"/>
-      <c r="P99" s="94"/>
-      <c r="Q99" s="94"/>
-      <c r="R99" s="94"/>
-      <c r="S99" s="94"/>
-      <c r="T99" s="94"/>
-      <c r="U99" s="94"/>
-      <c r="V99" s="94"/>
-      <c r="W99" s="94"/>
-      <c r="X99" s="94"/>
-      <c r="Y99" s="94"/>
-      <c r="Z99" s="94"/>
-      <c r="AA99" s="94"/>
-      <c r="AB99" s="94"/>
-      <c r="AC99" s="94"/>
-      <c r="AD99" s="94"/>
-      <c r="AE99" s="94"/>
-      <c r="AF99" s="94"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="73"/>
+      <c r="T99" s="73"/>
+      <c r="U99" s="73"/>
+      <c r="V99" s="73"/>
+      <c r="W99" s="73"/>
+      <c r="X99" s="73"/>
+      <c r="Y99" s="73"/>
+      <c r="Z99" s="73"/>
+      <c r="AA99" s="73"/>
+      <c r="AB99" s="73"/>
+      <c r="AC99" s="73"/>
+      <c r="AD99" s="73"/>
+      <c r="AE99" s="73"/>
+      <c r="AF99" s="73"/>
       <c r="AG99" s="31"/>
       <c r="AH99" s="55"/>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" s="55"/>
       <c r="B100" s="30"/>
-      <c r="C100" s="74" t="s">
+      <c r="C100" s="93" t="s">
         <v>89</v>
       </c>
       <c r="D100">
@@ -24612,7 +24615,7 @@
       <c r="F100" s="4">
         <v>8.61088889</v>
       </c>
-      <c r="I100" s="74" t="s">
+      <c r="I100" s="93" t="s">
         <v>90</v>
       </c>
       <c r="J100">
@@ -24624,31 +24627,31 @@
       <c r="L100" s="16">
         <v>7.1413333300000001</v>
       </c>
-      <c r="O100" s="94"/>
-      <c r="P100" s="94"/>
-      <c r="Q100" s="94"/>
-      <c r="R100" s="94"/>
-      <c r="S100" s="94"/>
-      <c r="T100" s="94"/>
-      <c r="U100" s="94"/>
-      <c r="V100" s="94"/>
-      <c r="W100" s="94"/>
-      <c r="X100" s="94"/>
-      <c r="Y100" s="94"/>
-      <c r="Z100" s="94"/>
-      <c r="AA100" s="94"/>
-      <c r="AB100" s="94"/>
-      <c r="AC100" s="94"/>
-      <c r="AD100" s="94"/>
-      <c r="AE100" s="94"/>
-      <c r="AF100" s="94"/>
+      <c r="O100" s="73"/>
+      <c r="P100" s="73"/>
+      <c r="Q100" s="73"/>
+      <c r="R100" s="73"/>
+      <c r="S100" s="73"/>
+      <c r="T100" s="73"/>
+      <c r="U100" s="73"/>
+      <c r="V100" s="73"/>
+      <c r="W100" s="73"/>
+      <c r="X100" s="73"/>
+      <c r="Y100" s="73"/>
+      <c r="Z100" s="73"/>
+      <c r="AA100" s="73"/>
+      <c r="AB100" s="73"/>
+      <c r="AC100" s="73"/>
+      <c r="AD100" s="73"/>
+      <c r="AE100" s="73"/>
+      <c r="AF100" s="73"/>
       <c r="AG100" s="31"/>
       <c r="AH100" s="55"/>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" s="55"/>
       <c r="B101" s="30"/>
-      <c r="C101" s="72"/>
+      <c r="C101" s="94"/>
       <c r="D101">
         <v>9.0924393548386693</v>
       </c>
@@ -24658,7 +24661,7 @@
       <c r="F101" s="4">
         <v>8.7108888899999997</v>
       </c>
-      <c r="I101" s="72"/>
+      <c r="I101" s="94"/>
       <c r="J101">
         <v>7.5324022988505597</v>
       </c>
@@ -24668,31 +24671,31 @@
       <c r="L101" s="16">
         <v>7.3373333299999999</v>
       </c>
-      <c r="O101" s="94"/>
-      <c r="P101" s="94"/>
-      <c r="Q101" s="94"/>
-      <c r="R101" s="94"/>
-      <c r="S101" s="94"/>
-      <c r="T101" s="94"/>
-      <c r="U101" s="94"/>
-      <c r="V101" s="94"/>
-      <c r="W101" s="94"/>
-      <c r="X101" s="94"/>
-      <c r="Y101" s="94"/>
-      <c r="Z101" s="94"/>
-      <c r="AA101" s="94"/>
-      <c r="AB101" s="94"/>
-      <c r="AC101" s="94"/>
-      <c r="AD101" s="94"/>
-      <c r="AE101" s="94"/>
-      <c r="AF101" s="94"/>
+      <c r="O101" s="73"/>
+      <c r="P101" s="73"/>
+      <c r="Q101" s="73"/>
+      <c r="R101" s="73"/>
+      <c r="S101" s="73"/>
+      <c r="T101" s="73"/>
+      <c r="U101" s="73"/>
+      <c r="V101" s="73"/>
+      <c r="W101" s="73"/>
+      <c r="X101" s="73"/>
+      <c r="Y101" s="73"/>
+      <c r="Z101" s="73"/>
+      <c r="AA101" s="73"/>
+      <c r="AB101" s="73"/>
+      <c r="AC101" s="73"/>
+      <c r="AD101" s="73"/>
+      <c r="AE101" s="73"/>
+      <c r="AF101" s="73"/>
       <c r="AG101" s="31"/>
       <c r="AH101" s="55"/>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" s="55"/>
       <c r="B102" s="30"/>
-      <c r="C102" s="72"/>
+      <c r="C102" s="94"/>
       <c r="D102">
         <v>9.0817748358861703</v>
       </c>
@@ -24702,7 +24705,7 @@
       <c r="F102" s="4">
         <v>8.7950999999999997</v>
       </c>
-      <c r="I102" s="72"/>
+      <c r="I102" s="94"/>
       <c r="J102">
         <v>7.54562758620688</v>
       </c>
@@ -24712,31 +24715,31 @@
       <c r="L102" s="16">
         <v>7.3680000000000003</v>
       </c>
-      <c r="O102" s="94"/>
-      <c r="P102" s="94"/>
-      <c r="Q102" s="94"/>
-      <c r="R102" s="94"/>
-      <c r="S102" s="94"/>
-      <c r="T102" s="94"/>
-      <c r="U102" s="94"/>
-      <c r="V102" s="94"/>
-      <c r="W102" s="94"/>
-      <c r="X102" s="94"/>
-      <c r="Y102" s="94"/>
-      <c r="Z102" s="94"/>
-      <c r="AA102" s="94"/>
-      <c r="AB102" s="94"/>
-      <c r="AC102" s="94"/>
-      <c r="AD102" s="94"/>
-      <c r="AE102" s="94"/>
-      <c r="AF102" s="94"/>
+      <c r="O102" s="73"/>
+      <c r="P102" s="73"/>
+      <c r="Q102" s="73"/>
+      <c r="R102" s="73"/>
+      <c r="S102" s="73"/>
+      <c r="T102" s="73"/>
+      <c r="U102" s="73"/>
+      <c r="V102" s="73"/>
+      <c r="W102" s="73"/>
+      <c r="X102" s="73"/>
+      <c r="Y102" s="73"/>
+      <c r="Z102" s="73"/>
+      <c r="AA102" s="73"/>
+      <c r="AB102" s="73"/>
+      <c r="AC102" s="73"/>
+      <c r="AD102" s="73"/>
+      <c r="AE102" s="73"/>
+      <c r="AF102" s="73"/>
       <c r="AG102" s="31"/>
       <c r="AH102" s="55"/>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" s="55"/>
       <c r="B103" s="30"/>
-      <c r="C103" s="72"/>
+      <c r="C103" s="94"/>
       <c r="D103">
         <v>9.0162974468084602</v>
       </c>
@@ -24746,7 +24749,7 @@
       <c r="F103" s="4">
         <v>8.6059999999999999</v>
       </c>
-      <c r="I103" s="72"/>
+      <c r="I103" s="94"/>
       <c r="J103">
         <v>7.5780267441860296</v>
       </c>
@@ -24756,31 +24759,31 @@
       <c r="L103" s="16">
         <v>7.4146666699999999</v>
       </c>
-      <c r="O103" s="94"/>
-      <c r="P103" s="94"/>
-      <c r="Q103" s="94"/>
-      <c r="R103" s="94"/>
-      <c r="S103" s="94"/>
-      <c r="T103" s="94"/>
-      <c r="U103" s="94"/>
-      <c r="V103" s="94"/>
-      <c r="W103" s="94"/>
-      <c r="X103" s="94"/>
-      <c r="Y103" s="94"/>
-      <c r="Z103" s="94"/>
-      <c r="AA103" s="94"/>
-      <c r="AB103" s="94"/>
-      <c r="AC103" s="94"/>
-      <c r="AD103" s="94"/>
-      <c r="AE103" s="94"/>
-      <c r="AF103" s="94"/>
+      <c r="O103" s="73"/>
+      <c r="P103" s="73"/>
+      <c r="Q103" s="73"/>
+      <c r="R103" s="73"/>
+      <c r="S103" s="73"/>
+      <c r="T103" s="73"/>
+      <c r="U103" s="73"/>
+      <c r="V103" s="73"/>
+      <c r="W103" s="73"/>
+      <c r="X103" s="73"/>
+      <c r="Y103" s="73"/>
+      <c r="Z103" s="73"/>
+      <c r="AA103" s="73"/>
+      <c r="AB103" s="73"/>
+      <c r="AC103" s="73"/>
+      <c r="AD103" s="73"/>
+      <c r="AE103" s="73"/>
+      <c r="AF103" s="73"/>
       <c r="AG103" s="31"/>
       <c r="AH103" s="55"/>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" s="55"/>
       <c r="B104" s="30"/>
-      <c r="C104" s="72"/>
+      <c r="C104" s="94"/>
       <c r="D104">
         <v>8.9606201298700707</v>
       </c>
@@ -24790,7 +24793,7 @@
       <c r="F104" s="4">
         <v>8.7864444400000004</v>
       </c>
-      <c r="I104" s="72"/>
+      <c r="I104" s="94"/>
       <c r="J104">
         <v>7.67561931818181</v>
       </c>
@@ -24800,31 +24803,31 @@
       <c r="L104" s="16">
         <v>7.4163333299999996</v>
       </c>
-      <c r="O104" s="94"/>
-      <c r="P104" s="94"/>
-      <c r="Q104" s="94"/>
-      <c r="R104" s="94"/>
-      <c r="S104" s="94"/>
-      <c r="T104" s="94"/>
-      <c r="U104" s="94"/>
-      <c r="V104" s="94"/>
-      <c r="W104" s="94"/>
-      <c r="X104" s="94"/>
-      <c r="Y104" s="94"/>
-      <c r="Z104" s="94"/>
-      <c r="AA104" s="94"/>
-      <c r="AB104" s="94"/>
-      <c r="AC104" s="94"/>
-      <c r="AD104" s="94"/>
-      <c r="AE104" s="94"/>
-      <c r="AF104" s="94"/>
+      <c r="O104" s="73"/>
+      <c r="P104" s="73"/>
+      <c r="Q104" s="73"/>
+      <c r="R104" s="73"/>
+      <c r="S104" s="73"/>
+      <c r="T104" s="73"/>
+      <c r="U104" s="73"/>
+      <c r="V104" s="73"/>
+      <c r="W104" s="73"/>
+      <c r="X104" s="73"/>
+      <c r="Y104" s="73"/>
+      <c r="Z104" s="73"/>
+      <c r="AA104" s="73"/>
+      <c r="AB104" s="73"/>
+      <c r="AC104" s="73"/>
+      <c r="AD104" s="73"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="73"/>
       <c r="AG104" s="31"/>
       <c r="AH104" s="55"/>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" s="55"/>
       <c r="B105" s="30"/>
-      <c r="C105" s="72"/>
+      <c r="C105" s="94"/>
       <c r="D105">
         <v>9.0526137339055204</v>
       </c>
@@ -24834,7 +24837,7 @@
       <c r="F105" s="4">
         <v>8.6741111100000001</v>
       </c>
-      <c r="I105" s="72"/>
+      <c r="I105" s="94"/>
       <c r="J105">
         <v>7.6766781609195203</v>
       </c>
@@ -24844,31 +24847,31 @@
       <c r="L105" s="16">
         <v>7.59566667</v>
       </c>
-      <c r="O105" s="94"/>
-      <c r="P105" s="94"/>
-      <c r="Q105" s="94"/>
-      <c r="R105" s="94"/>
-      <c r="S105" s="94"/>
-      <c r="T105" s="94"/>
-      <c r="U105" s="94"/>
-      <c r="V105" s="94"/>
-      <c r="W105" s="94"/>
-      <c r="X105" s="94"/>
-      <c r="Y105" s="94"/>
-      <c r="Z105" s="94"/>
-      <c r="AA105" s="94"/>
-      <c r="AB105" s="94"/>
-      <c r="AC105" s="94"/>
-      <c r="AD105" s="94"/>
-      <c r="AE105" s="94"/>
-      <c r="AF105" s="94"/>
+      <c r="O105" s="73"/>
+      <c r="P105" s="73"/>
+      <c r="Q105" s="73"/>
+      <c r="R105" s="73"/>
+      <c r="S105" s="73"/>
+      <c r="T105" s="73"/>
+      <c r="U105" s="73"/>
+      <c r="V105" s="73"/>
+      <c r="W105" s="73"/>
+      <c r="X105" s="73"/>
+      <c r="Y105" s="73"/>
+      <c r="Z105" s="73"/>
+      <c r="AA105" s="73"/>
+      <c r="AB105" s="73"/>
+      <c r="AC105" s="73"/>
+      <c r="AD105" s="73"/>
+      <c r="AE105" s="73"/>
+      <c r="AF105" s="73"/>
       <c r="AG105" s="31"/>
       <c r="AH105" s="55"/>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" s="55"/>
       <c r="B106" s="30"/>
-      <c r="C106" s="72"/>
+      <c r="C106" s="94"/>
       <c r="D106">
         <v>8.9063352297592395</v>
       </c>
@@ -24878,7 +24881,7 @@
       <c r="F106" s="4">
         <v>7.4171111099999996</v>
       </c>
-      <c r="I106" s="72"/>
+      <c r="I106" s="94"/>
       <c r="J106">
         <v>7.6893022988505599</v>
       </c>
@@ -24888,31 +24891,31 @@
       <c r="L106" s="16">
         <v>7.6466666700000001</v>
       </c>
-      <c r="O106" s="94"/>
-      <c r="P106" s="94"/>
-      <c r="Q106" s="94"/>
-      <c r="R106" s="94"/>
-      <c r="S106" s="94"/>
-      <c r="T106" s="94"/>
-      <c r="U106" s="94"/>
-      <c r="V106" s="94"/>
-      <c r="W106" s="94"/>
-      <c r="X106" s="94"/>
-      <c r="Y106" s="94"/>
-      <c r="Z106" s="94"/>
-      <c r="AA106" s="94"/>
-      <c r="AB106" s="94"/>
-      <c r="AC106" s="94"/>
-      <c r="AD106" s="94"/>
-      <c r="AE106" s="94"/>
-      <c r="AF106" s="94"/>
+      <c r="O106" s="73"/>
+      <c r="P106" s="73"/>
+      <c r="Q106" s="73"/>
+      <c r="R106" s="73"/>
+      <c r="S106" s="73"/>
+      <c r="T106" s="73"/>
+      <c r="U106" s="73"/>
+      <c r="V106" s="73"/>
+      <c r="W106" s="73"/>
+      <c r="X106" s="73"/>
+      <c r="Y106" s="73"/>
+      <c r="Z106" s="73"/>
+      <c r="AA106" s="73"/>
+      <c r="AB106" s="73"/>
+      <c r="AC106" s="73"/>
+      <c r="AD106" s="73"/>
+      <c r="AE106" s="73"/>
+      <c r="AF106" s="73"/>
       <c r="AG106" s="31"/>
       <c r="AH106" s="55"/>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" s="55"/>
       <c r="B107" s="30"/>
-      <c r="C107" s="72"/>
+      <c r="C107" s="94"/>
       <c r="D107">
         <v>8.8843783261802098</v>
       </c>
@@ -24922,7 +24925,7 @@
       <c r="F107" s="4">
         <v>8.6273</v>
       </c>
-      <c r="I107" s="72"/>
+      <c r="I107" s="94"/>
       <c r="J107">
         <v>7.6970147727272602</v>
       </c>
@@ -24932,31 +24935,31 @@
       <c r="L107" s="16">
         <v>7.6746666699999997</v>
       </c>
-      <c r="O107" s="94"/>
-      <c r="P107" s="94"/>
-      <c r="Q107" s="94"/>
-      <c r="R107" s="94"/>
-      <c r="S107" s="94"/>
-      <c r="T107" s="94"/>
-      <c r="U107" s="94"/>
-      <c r="V107" s="94"/>
-      <c r="W107" s="94"/>
-      <c r="X107" s="94"/>
-      <c r="Y107" s="94"/>
-      <c r="Z107" s="94"/>
-      <c r="AA107" s="94"/>
-      <c r="AB107" s="94"/>
-      <c r="AC107" s="94"/>
-      <c r="AD107" s="94"/>
-      <c r="AE107" s="94"/>
-      <c r="AF107" s="94"/>
+      <c r="O107" s="73"/>
+      <c r="P107" s="73"/>
+      <c r="Q107" s="73"/>
+      <c r="R107" s="73"/>
+      <c r="S107" s="73"/>
+      <c r="T107" s="73"/>
+      <c r="U107" s="73"/>
+      <c r="V107" s="73"/>
+      <c r="W107" s="73"/>
+      <c r="X107" s="73"/>
+      <c r="Y107" s="73"/>
+      <c r="Z107" s="73"/>
+      <c r="AA107" s="73"/>
+      <c r="AB107" s="73"/>
+      <c r="AC107" s="73"/>
+      <c r="AD107" s="73"/>
+      <c r="AE107" s="73"/>
+      <c r="AF107" s="73"/>
       <c r="AG107" s="31"/>
       <c r="AH107" s="55"/>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" s="55"/>
       <c r="B108" s="30"/>
-      <c r="C108" s="72"/>
+      <c r="C108" s="94"/>
       <c r="D108">
         <v>8.8939754923412995</v>
       </c>
@@ -24966,7 +24969,7 @@
       <c r="F108" s="4">
         <v>8.6948000000000008</v>
       </c>
-      <c r="I108" s="72"/>
+      <c r="I108" s="94"/>
       <c r="J108">
         <v>7.6972220930232398</v>
       </c>
@@ -24976,31 +24979,31 @@
       <c r="L108" s="16">
         <v>7.8233333299999996</v>
       </c>
-      <c r="O108" s="94"/>
-      <c r="P108" s="94"/>
-      <c r="Q108" s="94"/>
-      <c r="R108" s="94"/>
-      <c r="S108" s="94"/>
-      <c r="T108" s="94"/>
-      <c r="U108" s="94"/>
-      <c r="V108" s="94"/>
-      <c r="W108" s="94"/>
-      <c r="X108" s="94"/>
-      <c r="Y108" s="94"/>
-      <c r="Z108" s="94"/>
-      <c r="AA108" s="94"/>
-      <c r="AB108" s="94"/>
-      <c r="AC108" s="94"/>
-      <c r="AD108" s="94"/>
-      <c r="AE108" s="94"/>
-      <c r="AF108" s="94"/>
+      <c r="O108" s="73"/>
+      <c r="P108" s="73"/>
+      <c r="Q108" s="73"/>
+      <c r="R108" s="73"/>
+      <c r="S108" s="73"/>
+      <c r="T108" s="73"/>
+      <c r="U108" s="73"/>
+      <c r="V108" s="73"/>
+      <c r="W108" s="73"/>
+      <c r="X108" s="73"/>
+      <c r="Y108" s="73"/>
+      <c r="Z108" s="73"/>
+      <c r="AA108" s="73"/>
+      <c r="AB108" s="73"/>
+      <c r="AC108" s="73"/>
+      <c r="AD108" s="73"/>
+      <c r="AE108" s="73"/>
+      <c r="AF108" s="73"/>
       <c r="AG108" s="31"/>
       <c r="AH108" s="55"/>
     </row>
-    <row r="109" spans="1:34" ht="17" thickBot="1">
+    <row r="109" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="55"/>
       <c r="B109" s="30"/>
-      <c r="C109" s="73"/>
+      <c r="C109" s="95"/>
       <c r="D109">
         <v>8.8138434408601398</v>
       </c>
@@ -25010,7 +25013,7 @@
       <c r="F109" s="4">
         <v>8.7246000000000006</v>
       </c>
-      <c r="I109" s="73"/>
+      <c r="I109" s="95"/>
       <c r="J109" s="39">
         <v>7.7175563218390604</v>
       </c>
@@ -25020,160 +25023,160 @@
       <c r="L109" s="18">
         <v>7.9443333300000001</v>
       </c>
-      <c r="O109" s="94"/>
-      <c r="P109" s="94"/>
-      <c r="Q109" s="94"/>
-      <c r="R109" s="94"/>
-      <c r="S109" s="94"/>
-      <c r="T109" s="94"/>
-      <c r="U109" s="94"/>
-      <c r="V109" s="94"/>
-      <c r="W109" s="94"/>
-      <c r="X109" s="94"/>
-      <c r="Y109" s="94"/>
-      <c r="Z109" s="94"/>
-      <c r="AA109" s="94"/>
-      <c r="AB109" s="94"/>
-      <c r="AC109" s="94"/>
-      <c r="AD109" s="94"/>
-      <c r="AE109" s="94"/>
-      <c r="AF109" s="94"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="73"/>
+      <c r="Q109" s="73"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="73"/>
+      <c r="T109" s="73"/>
+      <c r="U109" s="73"/>
+      <c r="V109" s="73"/>
+      <c r="W109" s="73"/>
+      <c r="X109" s="73"/>
+      <c r="Y109" s="73"/>
+      <c r="Z109" s="73"/>
+      <c r="AA109" s="73"/>
+      <c r="AB109" s="73"/>
+      <c r="AC109" s="73"/>
+      <c r="AD109" s="73"/>
+      <c r="AE109" s="73"/>
+      <c r="AF109" s="73"/>
       <c r="AG109" s="31"/>
       <c r="AH109" s="55"/>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" s="55"/>
       <c r="B110" s="30"/>
-      <c r="O110" s="94"/>
-      <c r="P110" s="94"/>
-      <c r="Q110" s="94"/>
-      <c r="R110" s="94"/>
-      <c r="S110" s="94"/>
-      <c r="T110" s="94"/>
-      <c r="U110" s="94"/>
-      <c r="V110" s="94"/>
-      <c r="W110" s="94"/>
-      <c r="X110" s="94"/>
-      <c r="Y110" s="94"/>
-      <c r="Z110" s="94"/>
-      <c r="AA110" s="94"/>
-      <c r="AB110" s="94"/>
-      <c r="AC110" s="94"/>
-      <c r="AD110" s="94"/>
-      <c r="AE110" s="94"/>
-      <c r="AF110" s="94"/>
+      <c r="O110" s="73"/>
+      <c r="P110" s="73"/>
+      <c r="Q110" s="73"/>
+      <c r="R110" s="73"/>
+      <c r="S110" s="73"/>
+      <c r="T110" s="73"/>
+      <c r="U110" s="73"/>
+      <c r="V110" s="73"/>
+      <c r="W110" s="73"/>
+      <c r="X110" s="73"/>
+      <c r="Y110" s="73"/>
+      <c r="Z110" s="73"/>
+      <c r="AA110" s="73"/>
+      <c r="AB110" s="73"/>
+      <c r="AC110" s="73"/>
+      <c r="AD110" s="73"/>
+      <c r="AE110" s="73"/>
+      <c r="AF110" s="73"/>
       <c r="AG110" s="31"/>
       <c r="AH110" s="55"/>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" s="55"/>
       <c r="B111" s="30"/>
-      <c r="O111" s="94"/>
-      <c r="P111" s="94"/>
-      <c r="Q111" s="94"/>
-      <c r="R111" s="94"/>
-      <c r="S111" s="94"/>
-      <c r="T111" s="94"/>
-      <c r="U111" s="94"/>
-      <c r="V111" s="94"/>
-      <c r="W111" s="94"/>
-      <c r="X111" s="94"/>
-      <c r="Y111" s="94"/>
-      <c r="Z111" s="94"/>
-      <c r="AA111" s="94"/>
-      <c r="AB111" s="94"/>
-      <c r="AC111" s="94"/>
-      <c r="AD111" s="94"/>
-      <c r="AE111" s="94"/>
-      <c r="AF111" s="94"/>
+      <c r="O111" s="73"/>
+      <c r="P111" s="73"/>
+      <c r="Q111" s="73"/>
+      <c r="R111" s="73"/>
+      <c r="S111" s="73"/>
+      <c r="T111" s="73"/>
+      <c r="U111" s="73"/>
+      <c r="V111" s="73"/>
+      <c r="W111" s="73"/>
+      <c r="X111" s="73"/>
+      <c r="Y111" s="73"/>
+      <c r="Z111" s="73"/>
+      <c r="AA111" s="73"/>
+      <c r="AB111" s="73"/>
+      <c r="AC111" s="73"/>
+      <c r="AD111" s="73"/>
+      <c r="AE111" s="73"/>
+      <c r="AF111" s="73"/>
       <c r="AG111" s="31"/>
       <c r="AH111" s="55"/>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" s="55"/>
       <c r="B112" s="30"/>
-      <c r="O112" s="94"/>
-      <c r="P112" s="94"/>
-      <c r="Q112" s="94"/>
-      <c r="R112" s="94"/>
-      <c r="S112" s="94"/>
-      <c r="T112" s="94"/>
-      <c r="U112" s="94"/>
-      <c r="V112" s="94"/>
-      <c r="W112" s="94"/>
-      <c r="X112" s="94"/>
-      <c r="Y112" s="94"/>
-      <c r="Z112" s="94"/>
-      <c r="AA112" s="94"/>
-      <c r="AB112" s="94"/>
-      <c r="AC112" s="94"/>
-      <c r="AD112" s="94"/>
-      <c r="AE112" s="94"/>
-      <c r="AF112" s="94"/>
+      <c r="O112" s="73"/>
+      <c r="P112" s="73"/>
+      <c r="Q112" s="73"/>
+      <c r="R112" s="73"/>
+      <c r="S112" s="73"/>
+      <c r="T112" s="73"/>
+      <c r="U112" s="73"/>
+      <c r="V112" s="73"/>
+      <c r="W112" s="73"/>
+      <c r="X112" s="73"/>
+      <c r="Y112" s="73"/>
+      <c r="Z112" s="73"/>
+      <c r="AA112" s="73"/>
+      <c r="AB112" s="73"/>
+      <c r="AC112" s="73"/>
+      <c r="AD112" s="73"/>
+      <c r="AE112" s="73"/>
+      <c r="AF112" s="73"/>
       <c r="AG112" s="31"/>
       <c r="AH112" s="55"/>
     </row>
-    <row r="113" spans="1:34" ht="17" thickBot="1">
+    <row r="113" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="55"/>
       <c r="B113" s="30"/>
-      <c r="O113" s="94"/>
-      <c r="P113" s="94"/>
-      <c r="Q113" s="94"/>
-      <c r="R113" s="94"/>
-      <c r="S113" s="94"/>
-      <c r="T113" s="94"/>
-      <c r="U113" s="94"/>
-      <c r="V113" s="94"/>
-      <c r="W113" s="94"/>
-      <c r="X113" s="94"/>
-      <c r="Y113" s="94"/>
-      <c r="Z113" s="94"/>
-      <c r="AA113" s="94"/>
-      <c r="AB113" s="94"/>
-      <c r="AC113" s="94"/>
-      <c r="AD113" s="94"/>
-      <c r="AE113" s="94"/>
-      <c r="AF113" s="94"/>
+      <c r="O113" s="73"/>
+      <c r="P113" s="73"/>
+      <c r="Q113" s="73"/>
+      <c r="R113" s="73"/>
+      <c r="S113" s="73"/>
+      <c r="T113" s="73"/>
+      <c r="U113" s="73"/>
+      <c r="V113" s="73"/>
+      <c r="W113" s="73"/>
+      <c r="X113" s="73"/>
+      <c r="Y113" s="73"/>
+      <c r="Z113" s="73"/>
+      <c r="AA113" s="73"/>
+      <c r="AB113" s="73"/>
+      <c r="AC113" s="73"/>
+      <c r="AD113" s="73"/>
+      <c r="AE113" s="73"/>
+      <c r="AF113" s="73"/>
       <c r="AG113" s="31"/>
       <c r="AH113" s="55"/>
     </row>
-    <row r="114" spans="1:34" ht="17" thickBot="1">
+    <row r="114" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="55"/>
       <c r="B114" s="30"/>
-      <c r="C114" s="75" t="s">
+      <c r="C114" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="77"/>
-      <c r="I114" s="78" t="s">
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="91"/>
+      <c r="I114" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="J114" s="79"/>
-      <c r="K114" s="79"/>
-      <c r="L114" s="80"/>
-      <c r="O114" s="94"/>
-      <c r="P114" s="94"/>
-      <c r="Q114" s="94"/>
-      <c r="R114" s="94"/>
-      <c r="S114" s="94"/>
-      <c r="T114" s="94"/>
-      <c r="U114" s="94"/>
-      <c r="V114" s="94"/>
-      <c r="W114" s="94"/>
-      <c r="X114" s="94"/>
-      <c r="Y114" s="94"/>
-      <c r="Z114" s="94"/>
-      <c r="AA114" s="94"/>
-      <c r="AB114" s="94"/>
-      <c r="AC114" s="94"/>
-      <c r="AD114" s="94"/>
-      <c r="AE114" s="94"/>
-      <c r="AF114" s="94"/>
+      <c r="J114" s="97"/>
+      <c r="K114" s="97"/>
+      <c r="L114" s="98"/>
+      <c r="O114" s="73"/>
+      <c r="P114" s="73"/>
+      <c r="Q114" s="73"/>
+      <c r="R114" s="73"/>
+      <c r="S114" s="73"/>
+      <c r="T114" s="73"/>
+      <c r="U114" s="73"/>
+      <c r="V114" s="73"/>
+      <c r="W114" s="73"/>
+      <c r="X114" s="73"/>
+      <c r="Y114" s="73"/>
+      <c r="Z114" s="73"/>
+      <c r="AA114" s="73"/>
+      <c r="AB114" s="73"/>
+      <c r="AC114" s="73"/>
+      <c r="AD114" s="73"/>
+      <c r="AE114" s="73"/>
+      <c r="AF114" s="73"/>
       <c r="AG114" s="31"/>
       <c r="AH114" s="55"/>
     </row>
-    <row r="115" spans="1:34" ht="17" thickBot="1">
+    <row r="115" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="55"/>
       <c r="B115" s="30"/>
       <c r="C115" s="10" t="s">
@@ -25200,31 +25203,31 @@
       <c r="L115" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="O115" s="94"/>
-      <c r="P115" s="94"/>
-      <c r="Q115" s="94"/>
-      <c r="R115" s="94"/>
-      <c r="S115" s="94"/>
-      <c r="T115" s="94"/>
-      <c r="U115" s="94"/>
-      <c r="V115" s="94"/>
-      <c r="W115" s="94"/>
-      <c r="X115" s="94"/>
-      <c r="Y115" s="94"/>
-      <c r="Z115" s="94"/>
-      <c r="AA115" s="94"/>
-      <c r="AB115" s="94"/>
-      <c r="AC115" s="94"/>
-      <c r="AD115" s="94"/>
-      <c r="AE115" s="94"/>
-      <c r="AF115" s="94"/>
+      <c r="O115" s="73"/>
+      <c r="P115" s="73"/>
+      <c r="Q115" s="73"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="73"/>
+      <c r="U115" s="73"/>
+      <c r="V115" s="73"/>
+      <c r="W115" s="73"/>
+      <c r="X115" s="73"/>
+      <c r="Y115" s="73"/>
+      <c r="Z115" s="73"/>
+      <c r="AA115" s="73"/>
+      <c r="AB115" s="73"/>
+      <c r="AC115" s="73"/>
+      <c r="AD115" s="73"/>
+      <c r="AE115" s="73"/>
+      <c r="AF115" s="73"/>
       <c r="AG115" s="31"/>
       <c r="AH115" s="55"/>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" s="55"/>
       <c r="B116" s="30"/>
-      <c r="C116" s="74" t="s">
+      <c r="C116" s="93" t="s">
         <v>126</v>
       </c>
       <c r="D116">
@@ -25236,7 +25239,7 @@
       <c r="F116" s="16">
         <v>4.9080000000000004</v>
       </c>
-      <c r="I116" s="74">
+      <c r="I116" s="93">
         <v>1000</v>
       </c>
       <c r="J116">
@@ -25248,31 +25251,31 @@
       <c r="L116" s="16">
         <v>5.7481999999999998</v>
       </c>
-      <c r="O116" s="94"/>
-      <c r="P116" s="94"/>
-      <c r="Q116" s="94"/>
-      <c r="R116" s="94"/>
-      <c r="S116" s="94"/>
-      <c r="T116" s="94"/>
-      <c r="U116" s="94"/>
-      <c r="V116" s="94"/>
-      <c r="W116" s="94"/>
-      <c r="X116" s="94"/>
-      <c r="Y116" s="94"/>
-      <c r="Z116" s="94"/>
-      <c r="AA116" s="94"/>
-      <c r="AB116" s="94"/>
-      <c r="AC116" s="94"/>
-      <c r="AD116" s="94"/>
-      <c r="AE116" s="94"/>
-      <c r="AF116" s="94"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="73"/>
+      <c r="Q116" s="73"/>
+      <c r="R116" s="73"/>
+      <c r="S116" s="73"/>
+      <c r="T116" s="73"/>
+      <c r="U116" s="73"/>
+      <c r="V116" s="73"/>
+      <c r="W116" s="73"/>
+      <c r="X116" s="73"/>
+      <c r="Y116" s="73"/>
+      <c r="Z116" s="73"/>
+      <c r="AA116" s="73"/>
+      <c r="AB116" s="73"/>
+      <c r="AC116" s="73"/>
+      <c r="AD116" s="73"/>
+      <c r="AE116" s="73"/>
+      <c r="AF116" s="73"/>
       <c r="AG116" s="31"/>
       <c r="AH116" s="55"/>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" s="55"/>
       <c r="B117" s="30"/>
-      <c r="C117" s="72"/>
+      <c r="C117" s="94"/>
       <c r="D117">
         <v>3.8178999999999998</v>
       </c>
@@ -25282,7 +25285,7 @@
       <c r="F117" s="16">
         <v>4.5960000000000001</v>
       </c>
-      <c r="I117" s="72"/>
+      <c r="I117" s="94"/>
       <c r="J117">
         <v>5.5071794768611397</v>
       </c>
@@ -25292,31 +25295,31 @@
       <c r="L117" s="16">
         <v>5.798</v>
       </c>
-      <c r="O117" s="94"/>
-      <c r="P117" s="94"/>
-      <c r="Q117" s="94"/>
-      <c r="R117" s="94"/>
-      <c r="S117" s="94"/>
-      <c r="T117" s="94"/>
-      <c r="U117" s="94"/>
-      <c r="V117" s="94"/>
-      <c r="W117" s="94"/>
-      <c r="X117" s="94"/>
-      <c r="Y117" s="94"/>
-      <c r="Z117" s="94"/>
-      <c r="AA117" s="94"/>
-      <c r="AB117" s="94"/>
-      <c r="AC117" s="94"/>
-      <c r="AD117" s="94"/>
-      <c r="AE117" s="94"/>
-      <c r="AF117" s="94"/>
+      <c r="O117" s="73"/>
+      <c r="P117" s="73"/>
+      <c r="Q117" s="73"/>
+      <c r="R117" s="73"/>
+      <c r="S117" s="73"/>
+      <c r="T117" s="73"/>
+      <c r="U117" s="73"/>
+      <c r="V117" s="73"/>
+      <c r="W117" s="73"/>
+      <c r="X117" s="73"/>
+      <c r="Y117" s="73"/>
+      <c r="Z117" s="73"/>
+      <c r="AA117" s="73"/>
+      <c r="AB117" s="73"/>
+      <c r="AC117" s="73"/>
+      <c r="AD117" s="73"/>
+      <c r="AE117" s="73"/>
+      <c r="AF117" s="73"/>
       <c r="AG117" s="31"/>
       <c r="AH117" s="55"/>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" s="55"/>
       <c r="B118" s="30"/>
-      <c r="C118" s="72"/>
+      <c r="C118" s="94"/>
       <c r="D118">
         <v>3.8178999999999998</v>
       </c>
@@ -25326,7 +25329,7 @@
       <c r="F118" s="16">
         <v>4.5845000000000002</v>
       </c>
-      <c r="I118" s="72"/>
+      <c r="I118" s="94"/>
       <c r="J118">
         <v>5.4331232380951997</v>
       </c>
@@ -25336,31 +25339,31 @@
       <c r="L118" s="16">
         <v>5.6783999999999999</v>
       </c>
-      <c r="O118" s="94"/>
-      <c r="P118" s="94"/>
-      <c r="Q118" s="94"/>
-      <c r="R118" s="94"/>
-      <c r="S118" s="94"/>
-      <c r="T118" s="94"/>
-      <c r="U118" s="94"/>
-      <c r="V118" s="94"/>
-      <c r="W118" s="94"/>
-      <c r="X118" s="94"/>
-      <c r="Y118" s="94"/>
-      <c r="Z118" s="94"/>
-      <c r="AA118" s="94"/>
-      <c r="AB118" s="94"/>
-      <c r="AC118" s="94"/>
-      <c r="AD118" s="94"/>
-      <c r="AE118" s="94"/>
-      <c r="AF118" s="94"/>
+      <c r="O118" s="73"/>
+      <c r="P118" s="73"/>
+      <c r="Q118" s="73"/>
+      <c r="R118" s="73"/>
+      <c r="S118" s="73"/>
+      <c r="T118" s="73"/>
+      <c r="U118" s="73"/>
+      <c r="V118" s="73"/>
+      <c r="W118" s="73"/>
+      <c r="X118" s="73"/>
+      <c r="Y118" s="73"/>
+      <c r="Z118" s="73"/>
+      <c r="AA118" s="73"/>
+      <c r="AB118" s="73"/>
+      <c r="AC118" s="73"/>
+      <c r="AD118" s="73"/>
+      <c r="AE118" s="73"/>
+      <c r="AF118" s="73"/>
       <c r="AG118" s="31"/>
       <c r="AH118" s="55"/>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" s="55"/>
       <c r="B119" s="30"/>
-      <c r="C119" s="72"/>
+      <c r="C119" s="94"/>
       <c r="D119">
         <v>3.8178999999999998</v>
       </c>
@@ -25370,7 +25373,7 @@
       <c r="F119" s="16">
         <v>4.5609999999999999</v>
       </c>
-      <c r="I119" s="72"/>
+      <c r="I119" s="94"/>
       <c r="J119">
         <v>5.4505194388777403</v>
       </c>
@@ -25380,31 +25383,31 @@
       <c r="L119" s="16">
         <v>5.8954000000000004</v>
       </c>
-      <c r="O119" s="94"/>
-      <c r="P119" s="94"/>
-      <c r="Q119" s="94"/>
-      <c r="R119" s="94"/>
-      <c r="S119" s="94"/>
-      <c r="T119" s="94"/>
-      <c r="U119" s="94"/>
-      <c r="V119" s="94"/>
-      <c r="W119" s="94"/>
-      <c r="X119" s="94"/>
-      <c r="Y119" s="94"/>
-      <c r="Z119" s="94"/>
-      <c r="AA119" s="94"/>
-      <c r="AB119" s="94"/>
-      <c r="AC119" s="94"/>
-      <c r="AD119" s="94"/>
-      <c r="AE119" s="94"/>
-      <c r="AF119" s="94"/>
+      <c r="O119" s="73"/>
+      <c r="P119" s="73"/>
+      <c r="Q119" s="73"/>
+      <c r="R119" s="73"/>
+      <c r="S119" s="73"/>
+      <c r="T119" s="73"/>
+      <c r="U119" s="73"/>
+      <c r="V119" s="73"/>
+      <c r="W119" s="73"/>
+      <c r="X119" s="73"/>
+      <c r="Y119" s="73"/>
+      <c r="Z119" s="73"/>
+      <c r="AA119" s="73"/>
+      <c r="AB119" s="73"/>
+      <c r="AC119" s="73"/>
+      <c r="AD119" s="73"/>
+      <c r="AE119" s="73"/>
+      <c r="AF119" s="73"/>
       <c r="AG119" s="31"/>
       <c r="AH119" s="55"/>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" s="55"/>
       <c r="B120" s="30"/>
-      <c r="C120" s="72"/>
+      <c r="C120" s="94"/>
       <c r="D120">
         <v>3.8178999999999998</v>
       </c>
@@ -25414,7 +25417,7 @@
       <c r="F120" s="16">
         <v>4.5540000000000003</v>
       </c>
-      <c r="I120" s="72"/>
+      <c r="I120" s="94"/>
       <c r="J120">
         <v>5.5545737999999796</v>
       </c>
@@ -25424,31 +25427,31 @@
       <c r="L120" s="16">
         <v>5.3585454500000003</v>
       </c>
-      <c r="O120" s="94"/>
-      <c r="P120" s="94"/>
-      <c r="Q120" s="94"/>
-      <c r="R120" s="94"/>
-      <c r="S120" s="94"/>
-      <c r="T120" s="94"/>
-      <c r="U120" s="94"/>
-      <c r="V120" s="94"/>
-      <c r="W120" s="94"/>
-      <c r="X120" s="94"/>
-      <c r="Y120" s="94"/>
-      <c r="Z120" s="94"/>
-      <c r="AA120" s="94"/>
-      <c r="AB120" s="94"/>
-      <c r="AC120" s="94"/>
-      <c r="AD120" s="94"/>
-      <c r="AE120" s="94"/>
-      <c r="AF120" s="94"/>
+      <c r="O120" s="73"/>
+      <c r="P120" s="73"/>
+      <c r="Q120" s="73"/>
+      <c r="R120" s="73"/>
+      <c r="S120" s="73"/>
+      <c r="T120" s="73"/>
+      <c r="U120" s="73"/>
+      <c r="V120" s="73"/>
+      <c r="W120" s="73"/>
+      <c r="X120" s="73"/>
+      <c r="Y120" s="73"/>
+      <c r="Z120" s="73"/>
+      <c r="AA120" s="73"/>
+      <c r="AB120" s="73"/>
+      <c r="AC120" s="73"/>
+      <c r="AD120" s="73"/>
+      <c r="AE120" s="73"/>
+      <c r="AF120" s="73"/>
       <c r="AG120" s="31"/>
       <c r="AH120" s="55"/>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" s="55"/>
       <c r="B121" s="30"/>
-      <c r="C121" s="72"/>
+      <c r="C121" s="94"/>
       <c r="D121">
         <v>3.8178999999999998</v>
       </c>
@@ -25458,7 +25461,7 @@
       <c r="F121" s="16">
         <v>4.5190000000000001</v>
       </c>
-      <c r="I121" s="72"/>
+      <c r="I121" s="94"/>
       <c r="J121">
         <v>5.4748734406438402</v>
       </c>
@@ -25468,31 +25471,31 @@
       <c r="L121" s="16">
         <v>5.7695999999999996</v>
       </c>
-      <c r="O121" s="94"/>
-      <c r="P121" s="94"/>
-      <c r="Q121" s="94"/>
-      <c r="R121" s="94"/>
-      <c r="S121" s="94"/>
-      <c r="T121" s="94"/>
-      <c r="U121" s="94"/>
-      <c r="V121" s="94"/>
-      <c r="W121" s="94"/>
-      <c r="X121" s="94"/>
-      <c r="Y121" s="94"/>
-      <c r="Z121" s="94"/>
-      <c r="AA121" s="94"/>
-      <c r="AB121" s="94"/>
-      <c r="AC121" s="94"/>
-      <c r="AD121" s="94"/>
-      <c r="AE121" s="94"/>
-      <c r="AF121" s="94"/>
+      <c r="O121" s="73"/>
+      <c r="P121" s="73"/>
+      <c r="Q121" s="73"/>
+      <c r="R121" s="73"/>
+      <c r="S121" s="73"/>
+      <c r="T121" s="73"/>
+      <c r="U121" s="73"/>
+      <c r="V121" s="73"/>
+      <c r="W121" s="73"/>
+      <c r="X121" s="73"/>
+      <c r="Y121" s="73"/>
+      <c r="Z121" s="73"/>
+      <c r="AA121" s="73"/>
+      <c r="AB121" s="73"/>
+      <c r="AC121" s="73"/>
+      <c r="AD121" s="73"/>
+      <c r="AE121" s="73"/>
+      <c r="AF121" s="73"/>
       <c r="AG121" s="31"/>
       <c r="AH121" s="55"/>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" s="55"/>
       <c r="B122" s="30"/>
-      <c r="C122" s="72"/>
+      <c r="C122" s="94"/>
       <c r="D122">
         <v>3.8178999999999998</v>
       </c>
@@ -25502,7 +25505,7 @@
       <c r="F122" s="16">
         <v>4.5419999999999998</v>
       </c>
-      <c r="I122" s="72"/>
+      <c r="I122" s="94"/>
       <c r="J122">
         <v>5.5584733466933702</v>
       </c>
@@ -25512,31 +25515,31 @@
       <c r="L122" s="16">
         <v>5.3325454499999996</v>
       </c>
-      <c r="O122" s="94"/>
-      <c r="P122" s="94"/>
-      <c r="Q122" s="94"/>
-      <c r="R122" s="94"/>
-      <c r="S122" s="94"/>
-      <c r="T122" s="94"/>
-      <c r="U122" s="94"/>
-      <c r="V122" s="94"/>
-      <c r="W122" s="94"/>
-      <c r="X122" s="94"/>
-      <c r="Y122" s="94"/>
-      <c r="Z122" s="94"/>
-      <c r="AA122" s="94"/>
-      <c r="AB122" s="94"/>
-      <c r="AC122" s="94"/>
-      <c r="AD122" s="94"/>
-      <c r="AE122" s="94"/>
-      <c r="AF122" s="94"/>
+      <c r="O122" s="73"/>
+      <c r="P122" s="73"/>
+      <c r="Q122" s="73"/>
+      <c r="R122" s="73"/>
+      <c r="S122" s="73"/>
+      <c r="T122" s="73"/>
+      <c r="U122" s="73"/>
+      <c r="V122" s="73"/>
+      <c r="W122" s="73"/>
+      <c r="X122" s="73"/>
+      <c r="Y122" s="73"/>
+      <c r="Z122" s="73"/>
+      <c r="AA122" s="73"/>
+      <c r="AB122" s="73"/>
+      <c r="AC122" s="73"/>
+      <c r="AD122" s="73"/>
+      <c r="AE122" s="73"/>
+      <c r="AF122" s="73"/>
       <c r="AG122" s="31"/>
       <c r="AH122" s="55"/>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" s="55"/>
       <c r="B123" s="30"/>
-      <c r="C123" s="72"/>
+      <c r="C123" s="94"/>
       <c r="D123">
         <v>3.8178999999999998</v>
       </c>
@@ -25546,7 +25549,7 @@
       <c r="F123" s="16">
         <v>4.5419999999999998</v>
       </c>
-      <c r="I123" s="72"/>
+      <c r="I123" s="94"/>
       <c r="J123">
         <v>5.5038427999999797</v>
       </c>
@@ -25556,31 +25559,31 @@
       <c r="L123" s="16">
         <v>5.6627000000000001</v>
       </c>
-      <c r="O123" s="94"/>
-      <c r="P123" s="94"/>
-      <c r="Q123" s="94"/>
-      <c r="R123" s="94"/>
-      <c r="S123" s="94"/>
-      <c r="T123" s="94"/>
-      <c r="U123" s="94"/>
-      <c r="V123" s="94"/>
-      <c r="W123" s="94"/>
-      <c r="X123" s="94"/>
-      <c r="Y123" s="94"/>
-      <c r="Z123" s="94"/>
-      <c r="AA123" s="94"/>
-      <c r="AB123" s="94"/>
-      <c r="AC123" s="94"/>
-      <c r="AD123" s="94"/>
-      <c r="AE123" s="94"/>
-      <c r="AF123" s="94"/>
+      <c r="O123" s="73"/>
+      <c r="P123" s="73"/>
+      <c r="Q123" s="73"/>
+      <c r="R123" s="73"/>
+      <c r="S123" s="73"/>
+      <c r="T123" s="73"/>
+      <c r="U123" s="73"/>
+      <c r="V123" s="73"/>
+      <c r="W123" s="73"/>
+      <c r="X123" s="73"/>
+      <c r="Y123" s="73"/>
+      <c r="Z123" s="73"/>
+      <c r="AA123" s="73"/>
+      <c r="AB123" s="73"/>
+      <c r="AC123" s="73"/>
+      <c r="AD123" s="73"/>
+      <c r="AE123" s="73"/>
+      <c r="AF123" s="73"/>
       <c r="AG123" s="31"/>
       <c r="AH123" s="55"/>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" s="55"/>
       <c r="B124" s="30"/>
-      <c r="C124" s="72"/>
+      <c r="C124" s="94"/>
       <c r="D124">
         <v>3.8178999999999998</v>
       </c>
@@ -25590,7 +25593,7 @@
       <c r="F124" s="16">
         <v>4.4009999999999998</v>
       </c>
-      <c r="I124" s="72"/>
+      <c r="I124" s="94"/>
       <c r="J124">
         <v>5.5426447791164497</v>
       </c>
@@ -25600,31 +25603,31 @@
       <c r="L124" s="16">
         <v>5.4100909100000001</v>
       </c>
-      <c r="O124" s="94"/>
-      <c r="P124" s="94"/>
-      <c r="Q124" s="94"/>
-      <c r="R124" s="94"/>
-      <c r="S124" s="94"/>
-      <c r="T124" s="94"/>
-      <c r="U124" s="94"/>
-      <c r="V124" s="94"/>
-      <c r="W124" s="94"/>
-      <c r="X124" s="94"/>
-      <c r="Y124" s="94"/>
-      <c r="Z124" s="94"/>
-      <c r="AA124" s="94"/>
-      <c r="AB124" s="94"/>
-      <c r="AC124" s="94"/>
-      <c r="AD124" s="94"/>
-      <c r="AE124" s="94"/>
-      <c r="AF124" s="94"/>
+      <c r="O124" s="73"/>
+      <c r="P124" s="73"/>
+      <c r="Q124" s="73"/>
+      <c r="R124" s="73"/>
+      <c r="S124" s="73"/>
+      <c r="T124" s="73"/>
+      <c r="U124" s="73"/>
+      <c r="V124" s="73"/>
+      <c r="W124" s="73"/>
+      <c r="X124" s="73"/>
+      <c r="Y124" s="73"/>
+      <c r="Z124" s="73"/>
+      <c r="AA124" s="73"/>
+      <c r="AB124" s="73"/>
+      <c r="AC124" s="73"/>
+      <c r="AD124" s="73"/>
+      <c r="AE124" s="73"/>
+      <c r="AF124" s="73"/>
       <c r="AG124" s="31"/>
       <c r="AH124" s="55"/>
     </row>
-    <row r="125" spans="1:34" ht="17" thickBot="1">
+    <row r="125" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="55"/>
       <c r="B125" s="30"/>
-      <c r="C125" s="73"/>
+      <c r="C125" s="95"/>
       <c r="D125" s="39">
         <v>3.8178999999999998</v>
       </c>
@@ -25634,7 +25637,7 @@
       <c r="F125" s="18">
         <v>4.4885000000000002</v>
       </c>
-      <c r="I125" s="73"/>
+      <c r="I125" s="95"/>
       <c r="J125" s="39">
         <v>5.5008093999999703</v>
       </c>
@@ -25644,154 +25647,154 @@
       <c r="L125" s="18">
         <v>5.6425000000000001</v>
       </c>
-      <c r="O125" s="94"/>
-      <c r="P125" s="94"/>
-      <c r="Q125" s="94"/>
-      <c r="R125" s="94"/>
-      <c r="S125" s="94"/>
-      <c r="T125" s="94"/>
-      <c r="U125" s="94"/>
-      <c r="V125" s="94"/>
-      <c r="W125" s="94"/>
-      <c r="X125" s="94"/>
-      <c r="Y125" s="94"/>
-      <c r="Z125" s="94"/>
-      <c r="AA125" s="94"/>
-      <c r="AB125" s="94"/>
-      <c r="AC125" s="94"/>
-      <c r="AD125" s="94"/>
-      <c r="AE125" s="94"/>
-      <c r="AF125" s="94"/>
+      <c r="O125" s="73"/>
+      <c r="P125" s="73"/>
+      <c r="Q125" s="73"/>
+      <c r="R125" s="73"/>
+      <c r="S125" s="73"/>
+      <c r="T125" s="73"/>
+      <c r="U125" s="73"/>
+      <c r="V125" s="73"/>
+      <c r="W125" s="73"/>
+      <c r="X125" s="73"/>
+      <c r="Y125" s="73"/>
+      <c r="Z125" s="73"/>
+      <c r="AA125" s="73"/>
+      <c r="AB125" s="73"/>
+      <c r="AC125" s="73"/>
+      <c r="AD125" s="73"/>
+      <c r="AE125" s="73"/>
+      <c r="AF125" s="73"/>
       <c r="AG125" s="31"/>
       <c r="AH125" s="55"/>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" s="55"/>
       <c r="B126" s="30"/>
-      <c r="O126" s="94"/>
-      <c r="P126" s="94"/>
-      <c r="Q126" s="94"/>
-      <c r="R126" s="94"/>
-      <c r="S126" s="94"/>
-      <c r="T126" s="94"/>
-      <c r="U126" s="94"/>
-      <c r="V126" s="94"/>
-      <c r="W126" s="94"/>
-      <c r="X126" s="94"/>
-      <c r="Y126" s="94"/>
-      <c r="Z126" s="94"/>
-      <c r="AA126" s="94"/>
-      <c r="AB126" s="94"/>
-      <c r="AC126" s="94"/>
-      <c r="AD126" s="94"/>
-      <c r="AE126" s="94"/>
-      <c r="AF126" s="94"/>
+      <c r="O126" s="73"/>
+      <c r="P126" s="73"/>
+      <c r="Q126" s="73"/>
+      <c r="R126" s="73"/>
+      <c r="S126" s="73"/>
+      <c r="T126" s="73"/>
+      <c r="U126" s="73"/>
+      <c r="V126" s="73"/>
+      <c r="W126" s="73"/>
+      <c r="X126" s="73"/>
+      <c r="Y126" s="73"/>
+      <c r="Z126" s="73"/>
+      <c r="AA126" s="73"/>
+      <c r="AB126" s="73"/>
+      <c r="AC126" s="73"/>
+      <c r="AD126" s="73"/>
+      <c r="AE126" s="73"/>
+      <c r="AF126" s="73"/>
       <c r="AG126" s="31"/>
       <c r="AH126" s="55"/>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" s="55"/>
       <c r="B127" s="30"/>
-      <c r="O127" s="94"/>
-      <c r="P127" s="94"/>
-      <c r="Q127" s="94"/>
-      <c r="R127" s="94"/>
-      <c r="S127" s="94"/>
-      <c r="T127" s="94"/>
-      <c r="U127" s="94"/>
-      <c r="V127" s="94"/>
-      <c r="W127" s="94"/>
-      <c r="X127" s="94"/>
-      <c r="Y127" s="94"/>
-      <c r="Z127" s="94"/>
-      <c r="AA127" s="94"/>
-      <c r="AB127" s="94"/>
-      <c r="AC127" s="94"/>
-      <c r="AD127" s="94"/>
-      <c r="AE127" s="94"/>
-      <c r="AF127" s="94"/>
+      <c r="O127" s="73"/>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="73"/>
+      <c r="S127" s="73"/>
+      <c r="T127" s="73"/>
+      <c r="U127" s="73"/>
+      <c r="V127" s="73"/>
+      <c r="W127" s="73"/>
+      <c r="X127" s="73"/>
+      <c r="Y127" s="73"/>
+      <c r="Z127" s="73"/>
+      <c r="AA127" s="73"/>
+      <c r="AB127" s="73"/>
+      <c r="AC127" s="73"/>
+      <c r="AD127" s="73"/>
+      <c r="AE127" s="73"/>
+      <c r="AF127" s="73"/>
       <c r="AG127" s="31"/>
       <c r="AH127" s="55"/>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="55"/>
       <c r="B128" s="30"/>
-      <c r="O128" s="94"/>
-      <c r="P128" s="94"/>
-      <c r="Q128" s="94"/>
-      <c r="R128" s="94"/>
-      <c r="S128" s="94"/>
-      <c r="T128" s="94"/>
-      <c r="U128" s="94"/>
-      <c r="V128" s="94"/>
-      <c r="W128" s="94"/>
-      <c r="X128" s="94"/>
-      <c r="Y128" s="94"/>
-      <c r="Z128" s="94"/>
-      <c r="AA128" s="94"/>
-      <c r="AB128" s="94"/>
-      <c r="AC128" s="94"/>
-      <c r="AD128" s="94"/>
-      <c r="AE128" s="94"/>
-      <c r="AF128" s="94"/>
+      <c r="O128" s="73"/>
+      <c r="P128" s="73"/>
+      <c r="Q128" s="73"/>
+      <c r="R128" s="73"/>
+      <c r="S128" s="73"/>
+      <c r="T128" s="73"/>
+      <c r="U128" s="73"/>
+      <c r="V128" s="73"/>
+      <c r="W128" s="73"/>
+      <c r="X128" s="73"/>
+      <c r="Y128" s="73"/>
+      <c r="Z128" s="73"/>
+      <c r="AA128" s="73"/>
+      <c r="AB128" s="73"/>
+      <c r="AC128" s="73"/>
+      <c r="AD128" s="73"/>
+      <c r="AE128" s="73"/>
+      <c r="AF128" s="73"/>
       <c r="AG128" s="31"/>
       <c r="AH128" s="55"/>
     </row>
-    <row r="129" spans="1:34" ht="17" thickBot="1">
+    <row r="129" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="55"/>
       <c r="B129" s="30"/>
-      <c r="O129" s="94"/>
-      <c r="P129" s="94"/>
-      <c r="Q129" s="94"/>
-      <c r="R129" s="94"/>
-      <c r="S129" s="94"/>
-      <c r="T129" s="94"/>
-      <c r="U129" s="94"/>
-      <c r="V129" s="94"/>
-      <c r="W129" s="94"/>
-      <c r="X129" s="94"/>
-      <c r="Y129" s="94"/>
-      <c r="Z129" s="94"/>
-      <c r="AA129" s="94"/>
-      <c r="AB129" s="94"/>
-      <c r="AC129" s="94"/>
-      <c r="AD129" s="94"/>
-      <c r="AE129" s="94"/>
-      <c r="AF129" s="94"/>
+      <c r="O129" s="73"/>
+      <c r="P129" s="73"/>
+      <c r="Q129" s="73"/>
+      <c r="R129" s="73"/>
+      <c r="S129" s="73"/>
+      <c r="T129" s="73"/>
+      <c r="U129" s="73"/>
+      <c r="V129" s="73"/>
+      <c r="W129" s="73"/>
+      <c r="X129" s="73"/>
+      <c r="Y129" s="73"/>
+      <c r="Z129" s="73"/>
+      <c r="AA129" s="73"/>
+      <c r="AB129" s="73"/>
+      <c r="AC129" s="73"/>
+      <c r="AD129" s="73"/>
+      <c r="AE129" s="73"/>
+      <c r="AF129" s="73"/>
       <c r="AG129" s="31"/>
       <c r="AH129" s="55"/>
     </row>
-    <row r="130" spans="1:34" ht="17" thickBot="1">
+    <row r="130" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="55"/>
       <c r="B130" s="30"/>
-      <c r="C130" s="75" t="s">
+      <c r="C130" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D130" s="76"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="77"/>
-      <c r="O130" s="94"/>
-      <c r="P130" s="94"/>
-      <c r="Q130" s="94"/>
-      <c r="R130" s="94"/>
-      <c r="S130" s="94"/>
-      <c r="T130" s="94"/>
-      <c r="U130" s="94"/>
-      <c r="V130" s="94"/>
-      <c r="W130" s="94"/>
-      <c r="X130" s="94"/>
-      <c r="Y130" s="94"/>
-      <c r="Z130" s="94"/>
-      <c r="AA130" s="94"/>
-      <c r="AB130" s="94"/>
-      <c r="AC130" s="94"/>
-      <c r="AD130" s="94"/>
-      <c r="AE130" s="94"/>
-      <c r="AF130" s="94"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="92"/>
+      <c r="F130" s="91"/>
+      <c r="O130" s="73"/>
+      <c r="P130" s="73"/>
+      <c r="Q130" s="73"/>
+      <c r="R130" s="73"/>
+      <c r="S130" s="73"/>
+      <c r="T130" s="73"/>
+      <c r="U130" s="73"/>
+      <c r="V130" s="73"/>
+      <c r="W130" s="73"/>
+      <c r="X130" s="73"/>
+      <c r="Y130" s="73"/>
+      <c r="Z130" s="73"/>
+      <c r="AA130" s="73"/>
+      <c r="AB130" s="73"/>
+      <c r="AC130" s="73"/>
+      <c r="AD130" s="73"/>
+      <c r="AE130" s="73"/>
+      <c r="AF130" s="73"/>
       <c r="AG130" s="31"/>
       <c r="AH130" s="55"/>
     </row>
-    <row r="131" spans="1:34" ht="17" thickBot="1">
+    <row r="131" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="55"/>
       <c r="B131" s="30"/>
       <c r="C131" s="10" t="s">
@@ -25806,31 +25809,31 @@
       <c r="F131" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O131" s="94"/>
-      <c r="P131" s="94"/>
-      <c r="Q131" s="94"/>
-      <c r="R131" s="94"/>
-      <c r="S131" s="94"/>
-      <c r="T131" s="94"/>
-      <c r="U131" s="94"/>
-      <c r="V131" s="94"/>
-      <c r="W131" s="94"/>
-      <c r="X131" s="94"/>
-      <c r="Y131" s="94"/>
-      <c r="Z131" s="94"/>
-      <c r="AA131" s="94"/>
-      <c r="AB131" s="94"/>
-      <c r="AC131" s="94"/>
-      <c r="AD131" s="94"/>
-      <c r="AE131" s="94"/>
-      <c r="AF131" s="94"/>
+      <c r="O131" s="73"/>
+      <c r="P131" s="73"/>
+      <c r="Q131" s="73"/>
+      <c r="R131" s="73"/>
+      <c r="S131" s="73"/>
+      <c r="T131" s="73"/>
+      <c r="U131" s="73"/>
+      <c r="V131" s="73"/>
+      <c r="W131" s="73"/>
+      <c r="X131" s="73"/>
+      <c r="Y131" s="73"/>
+      <c r="Z131" s="73"/>
+      <c r="AA131" s="73"/>
+      <c r="AB131" s="73"/>
+      <c r="AC131" s="73"/>
+      <c r="AD131" s="73"/>
+      <c r="AE131" s="73"/>
+      <c r="AF131" s="73"/>
       <c r="AG131" s="31"/>
       <c r="AH131" s="55"/>
     </row>
-    <row r="132" spans="1:34">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" s="55"/>
       <c r="B132" s="30"/>
-      <c r="C132" s="72">
+      <c r="C132" s="94">
         <v>2000</v>
       </c>
       <c r="D132">
@@ -25842,31 +25845,31 @@
       <c r="F132" s="21">
         <v>7.0452527470000001</v>
       </c>
-      <c r="O132" s="94"/>
-      <c r="P132" s="94"/>
-      <c r="Q132" s="94"/>
-      <c r="R132" s="94"/>
-      <c r="S132" s="94"/>
-      <c r="T132" s="94"/>
-      <c r="U132" s="94"/>
-      <c r="V132" s="94"/>
-      <c r="W132" s="94"/>
-      <c r="X132" s="94"/>
-      <c r="Y132" s="94"/>
-      <c r="Z132" s="94"/>
-      <c r="AA132" s="94"/>
-      <c r="AB132" s="94"/>
-      <c r="AC132" s="94"/>
-      <c r="AD132" s="94"/>
-      <c r="AE132" s="94"/>
-      <c r="AF132" s="94"/>
+      <c r="O132" s="73"/>
+      <c r="P132" s="73"/>
+      <c r="Q132" s="73"/>
+      <c r="R132" s="73"/>
+      <c r="S132" s="73"/>
+      <c r="T132" s="73"/>
+      <c r="U132" s="73"/>
+      <c r="V132" s="73"/>
+      <c r="W132" s="73"/>
+      <c r="X132" s="73"/>
+      <c r="Y132" s="73"/>
+      <c r="Z132" s="73"/>
+      <c r="AA132" s="73"/>
+      <c r="AB132" s="73"/>
+      <c r="AC132" s="73"/>
+      <c r="AD132" s="73"/>
+      <c r="AE132" s="73"/>
+      <c r="AF132" s="73"/>
       <c r="AG132" s="31"/>
       <c r="AH132" s="55"/>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133" s="55"/>
       <c r="B133" s="30"/>
-      <c r="C133" s="72"/>
+      <c r="C133" s="94"/>
       <c r="D133">
         <v>6.9534220460260503</v>
       </c>
@@ -25876,31 +25879,31 @@
       <c r="F133" s="21">
         <v>7.0345384620000004</v>
       </c>
-      <c r="O133" s="94"/>
-      <c r="P133" s="94"/>
-      <c r="Q133" s="94"/>
-      <c r="R133" s="94"/>
-      <c r="S133" s="94"/>
-      <c r="T133" s="94"/>
-      <c r="U133" s="94"/>
-      <c r="V133" s="94"/>
-      <c r="W133" s="94"/>
-      <c r="X133" s="94"/>
-      <c r="Y133" s="94"/>
-      <c r="Z133" s="94"/>
-      <c r="AA133" s="94"/>
-      <c r="AB133" s="94"/>
-      <c r="AC133" s="94"/>
-      <c r="AD133" s="94"/>
-      <c r="AE133" s="94"/>
-      <c r="AF133" s="94"/>
+      <c r="O133" s="73"/>
+      <c r="P133" s="73"/>
+      <c r="Q133" s="73"/>
+      <c r="R133" s="73"/>
+      <c r="S133" s="73"/>
+      <c r="T133" s="73"/>
+      <c r="U133" s="73"/>
+      <c r="V133" s="73"/>
+      <c r="W133" s="73"/>
+      <c r="X133" s="73"/>
+      <c r="Y133" s="73"/>
+      <c r="Z133" s="73"/>
+      <c r="AA133" s="73"/>
+      <c r="AB133" s="73"/>
+      <c r="AC133" s="73"/>
+      <c r="AD133" s="73"/>
+      <c r="AE133" s="73"/>
+      <c r="AF133" s="73"/>
       <c r="AG133" s="31"/>
       <c r="AH133" s="55"/>
     </row>
-    <row r="134" spans="1:34">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134" s="55"/>
       <c r="B134" s="30"/>
-      <c r="C134" s="72"/>
+      <c r="C134" s="94"/>
       <c r="D134">
         <v>7.7839140058198701</v>
       </c>
@@ -25910,31 +25913,31 @@
       <c r="F134" s="21">
         <v>6.9221847829999996</v>
       </c>
-      <c r="O134" s="94"/>
-      <c r="P134" s="94"/>
-      <c r="Q134" s="94"/>
-      <c r="R134" s="94"/>
-      <c r="S134" s="94"/>
-      <c r="T134" s="94"/>
-      <c r="U134" s="94"/>
-      <c r="V134" s="94"/>
-      <c r="W134" s="94"/>
-      <c r="X134" s="94"/>
-      <c r="Y134" s="94"/>
-      <c r="Z134" s="94"/>
-      <c r="AA134" s="94"/>
-      <c r="AB134" s="94"/>
-      <c r="AC134" s="94"/>
-      <c r="AD134" s="94"/>
-      <c r="AE134" s="94"/>
-      <c r="AF134" s="94"/>
+      <c r="O134" s="73"/>
+      <c r="P134" s="73"/>
+      <c r="Q134" s="73"/>
+      <c r="R134" s="73"/>
+      <c r="S134" s="73"/>
+      <c r="T134" s="73"/>
+      <c r="U134" s="73"/>
+      <c r="V134" s="73"/>
+      <c r="W134" s="73"/>
+      <c r="X134" s="73"/>
+      <c r="Y134" s="73"/>
+      <c r="Z134" s="73"/>
+      <c r="AA134" s="73"/>
+      <c r="AB134" s="73"/>
+      <c r="AC134" s="73"/>
+      <c r="AD134" s="73"/>
+      <c r="AE134" s="73"/>
+      <c r="AF134" s="73"/>
       <c r="AG134" s="31"/>
       <c r="AH134" s="55"/>
     </row>
-    <row r="135" spans="1:34">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135" s="55"/>
       <c r="B135" s="30"/>
-      <c r="C135" s="72"/>
+      <c r="C135" s="94"/>
       <c r="D135">
         <v>7.7408570790447904</v>
       </c>
@@ -25944,31 +25947,31 @@
       <c r="F135" s="21">
         <v>7.0194456519999999</v>
       </c>
-      <c r="O135" s="94"/>
-      <c r="P135" s="94"/>
-      <c r="Q135" s="94"/>
-      <c r="R135" s="94"/>
-      <c r="S135" s="94"/>
-      <c r="T135" s="94"/>
-      <c r="U135" s="94"/>
-      <c r="V135" s="94"/>
-      <c r="W135" s="94"/>
-      <c r="X135" s="94"/>
-      <c r="Y135" s="94"/>
-      <c r="Z135" s="94"/>
-      <c r="AA135" s="94"/>
-      <c r="AB135" s="94"/>
-      <c r="AC135" s="94"/>
-      <c r="AD135" s="94"/>
-      <c r="AE135" s="94"/>
-      <c r="AF135" s="94"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="73"/>
+      <c r="Q135" s="73"/>
+      <c r="R135" s="73"/>
+      <c r="S135" s="73"/>
+      <c r="T135" s="73"/>
+      <c r="U135" s="73"/>
+      <c r="V135" s="73"/>
+      <c r="W135" s="73"/>
+      <c r="X135" s="73"/>
+      <c r="Y135" s="73"/>
+      <c r="Z135" s="73"/>
+      <c r="AA135" s="73"/>
+      <c r="AB135" s="73"/>
+      <c r="AC135" s="73"/>
+      <c r="AD135" s="73"/>
+      <c r="AE135" s="73"/>
+      <c r="AF135" s="73"/>
       <c r="AG135" s="31"/>
       <c r="AH135" s="55"/>
     </row>
-    <row r="136" spans="1:34">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136" s="55"/>
       <c r="B136" s="30"/>
-      <c r="C136" s="72"/>
+      <c r="C136" s="94"/>
       <c r="D136">
         <v>8.0576339918649893</v>
       </c>
@@ -25978,31 +25981,31 @@
       <c r="F136" s="21">
         <v>7.0416413039999997</v>
       </c>
-      <c r="O136" s="94"/>
-      <c r="P136" s="94"/>
-      <c r="Q136" s="94"/>
-      <c r="R136" s="94"/>
-      <c r="S136" s="94"/>
-      <c r="T136" s="94"/>
-      <c r="U136" s="94"/>
-      <c r="V136" s="94"/>
-      <c r="W136" s="94"/>
-      <c r="X136" s="94"/>
-      <c r="Y136" s="94"/>
-      <c r="Z136" s="94"/>
-      <c r="AA136" s="94"/>
-      <c r="AB136" s="94"/>
-      <c r="AC136" s="94"/>
-      <c r="AD136" s="94"/>
-      <c r="AE136" s="94"/>
-      <c r="AF136" s="94"/>
+      <c r="O136" s="73"/>
+      <c r="P136" s="73"/>
+      <c r="Q136" s="73"/>
+      <c r="R136" s="73"/>
+      <c r="S136" s="73"/>
+      <c r="T136" s="73"/>
+      <c r="U136" s="73"/>
+      <c r="V136" s="73"/>
+      <c r="W136" s="73"/>
+      <c r="X136" s="73"/>
+      <c r="Y136" s="73"/>
+      <c r="Z136" s="73"/>
+      <c r="AA136" s="73"/>
+      <c r="AB136" s="73"/>
+      <c r="AC136" s="73"/>
+      <c r="AD136" s="73"/>
+      <c r="AE136" s="73"/>
+      <c r="AF136" s="73"/>
       <c r="AG136" s="31"/>
       <c r="AH136" s="55"/>
     </row>
-    <row r="137" spans="1:34">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" s="55"/>
       <c r="B137" s="30"/>
-      <c r="C137" s="72"/>
+      <c r="C137" s="94"/>
       <c r="D137">
         <v>7.8509873080662897</v>
       </c>
@@ -26012,31 +26015,31 @@
       <c r="F137" s="21">
         <v>6.9562934780000001</v>
       </c>
-      <c r="O137" s="94"/>
-      <c r="P137" s="94"/>
-      <c r="Q137" s="94"/>
-      <c r="R137" s="94"/>
-      <c r="S137" s="94"/>
-      <c r="T137" s="94"/>
-      <c r="U137" s="94"/>
-      <c r="V137" s="94"/>
-      <c r="W137" s="94"/>
-      <c r="X137" s="94"/>
-      <c r="Y137" s="94"/>
-      <c r="Z137" s="94"/>
-      <c r="AA137" s="94"/>
-      <c r="AB137" s="94"/>
-      <c r="AC137" s="94"/>
-      <c r="AD137" s="94"/>
-      <c r="AE137" s="94"/>
-      <c r="AF137" s="94"/>
+      <c r="O137" s="73"/>
+      <c r="P137" s="73"/>
+      <c r="Q137" s="73"/>
+      <c r="R137" s="73"/>
+      <c r="S137" s="73"/>
+      <c r="T137" s="73"/>
+      <c r="U137" s="73"/>
+      <c r="V137" s="73"/>
+      <c r="W137" s="73"/>
+      <c r="X137" s="73"/>
+      <c r="Y137" s="73"/>
+      <c r="Z137" s="73"/>
+      <c r="AA137" s="73"/>
+      <c r="AB137" s="73"/>
+      <c r="AC137" s="73"/>
+      <c r="AD137" s="73"/>
+      <c r="AE137" s="73"/>
+      <c r="AF137" s="73"/>
       <c r="AG137" s="31"/>
       <c r="AH137" s="55"/>
     </row>
-    <row r="138" spans="1:34">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138" s="55"/>
       <c r="B138" s="30"/>
-      <c r="C138" s="72"/>
+      <c r="C138" s="94"/>
       <c r="D138">
         <v>7.7795386125148296</v>
       </c>
@@ -26046,31 +26049,31 @@
       <c r="F138" s="21">
         <v>7.0811208790000002</v>
       </c>
-      <c r="O138" s="94"/>
-      <c r="P138" s="94"/>
-      <c r="Q138" s="94"/>
-      <c r="R138" s="94"/>
-      <c r="S138" s="94"/>
-      <c r="T138" s="94"/>
-      <c r="U138" s="94"/>
-      <c r="V138" s="94"/>
-      <c r="W138" s="94"/>
-      <c r="X138" s="94"/>
-      <c r="Y138" s="94"/>
-      <c r="Z138" s="94"/>
-      <c r="AA138" s="94"/>
-      <c r="AB138" s="94"/>
-      <c r="AC138" s="94"/>
-      <c r="AD138" s="94"/>
-      <c r="AE138" s="94"/>
-      <c r="AF138" s="94"/>
+      <c r="O138" s="73"/>
+      <c r="P138" s="73"/>
+      <c r="Q138" s="73"/>
+      <c r="R138" s="73"/>
+      <c r="S138" s="73"/>
+      <c r="T138" s="73"/>
+      <c r="U138" s="73"/>
+      <c r="V138" s="73"/>
+      <c r="W138" s="73"/>
+      <c r="X138" s="73"/>
+      <c r="Y138" s="73"/>
+      <c r="Z138" s="73"/>
+      <c r="AA138" s="73"/>
+      <c r="AB138" s="73"/>
+      <c r="AC138" s="73"/>
+      <c r="AD138" s="73"/>
+      <c r="AE138" s="73"/>
+      <c r="AF138" s="73"/>
       <c r="AG138" s="31"/>
       <c r="AH138" s="55"/>
     </row>
-    <row r="139" spans="1:34">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139" s="55"/>
       <c r="B139" s="30"/>
-      <c r="C139" s="72"/>
+      <c r="C139" s="94"/>
       <c r="D139">
         <v>6.8702428295324198</v>
       </c>
@@ -26080,31 +26083,31 @@
       <c r="F139" s="21">
         <v>6.9773478259999999</v>
       </c>
-      <c r="O139" s="94"/>
-      <c r="P139" s="94"/>
-      <c r="Q139" s="94"/>
-      <c r="R139" s="94"/>
-      <c r="S139" s="94"/>
-      <c r="T139" s="94"/>
-      <c r="U139" s="94"/>
-      <c r="V139" s="94"/>
-      <c r="W139" s="94"/>
-      <c r="X139" s="94"/>
-      <c r="Y139" s="94"/>
-      <c r="Z139" s="94"/>
-      <c r="AA139" s="94"/>
-      <c r="AB139" s="94"/>
-      <c r="AC139" s="94"/>
-      <c r="AD139" s="94"/>
-      <c r="AE139" s="94"/>
-      <c r="AF139" s="94"/>
+      <c r="O139" s="73"/>
+      <c r="P139" s="73"/>
+      <c r="Q139" s="73"/>
+      <c r="R139" s="73"/>
+      <c r="S139" s="73"/>
+      <c r="T139" s="73"/>
+      <c r="U139" s="73"/>
+      <c r="V139" s="73"/>
+      <c r="W139" s="73"/>
+      <c r="X139" s="73"/>
+      <c r="Y139" s="73"/>
+      <c r="Z139" s="73"/>
+      <c r="AA139" s="73"/>
+      <c r="AB139" s="73"/>
+      <c r="AC139" s="73"/>
+      <c r="AD139" s="73"/>
+      <c r="AE139" s="73"/>
+      <c r="AF139" s="73"/>
       <c r="AG139" s="31"/>
       <c r="AH139" s="55"/>
     </row>
-    <row r="140" spans="1:34">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140" s="55"/>
       <c r="B140" s="30"/>
-      <c r="C140" s="72"/>
+      <c r="C140" s="94"/>
       <c r="D140">
         <v>7.76806667964214</v>
       </c>
@@ -26114,31 +26117,31 @@
       <c r="F140" s="21">
         <v>7.2899456520000001</v>
       </c>
-      <c r="O140" s="94"/>
-      <c r="P140" s="94"/>
-      <c r="Q140" s="94"/>
-      <c r="R140" s="94"/>
-      <c r="S140" s="94"/>
-      <c r="T140" s="94"/>
-      <c r="U140" s="94"/>
-      <c r="V140" s="94"/>
-      <c r="W140" s="94"/>
-      <c r="X140" s="94"/>
-      <c r="Y140" s="94"/>
-      <c r="Z140" s="94"/>
-      <c r="AA140" s="94"/>
-      <c r="AB140" s="94"/>
-      <c r="AC140" s="94"/>
-      <c r="AD140" s="94"/>
-      <c r="AE140" s="94"/>
-      <c r="AF140" s="94"/>
+      <c r="O140" s="73"/>
+      <c r="P140" s="73"/>
+      <c r="Q140" s="73"/>
+      <c r="R140" s="73"/>
+      <c r="S140" s="73"/>
+      <c r="T140" s="73"/>
+      <c r="U140" s="73"/>
+      <c r="V140" s="73"/>
+      <c r="W140" s="73"/>
+      <c r="X140" s="73"/>
+      <c r="Y140" s="73"/>
+      <c r="Z140" s="73"/>
+      <c r="AA140" s="73"/>
+      <c r="AB140" s="73"/>
+      <c r="AC140" s="73"/>
+      <c r="AD140" s="73"/>
+      <c r="AE140" s="73"/>
+      <c r="AF140" s="73"/>
       <c r="AG140" s="31"/>
       <c r="AH140" s="55"/>
     </row>
-    <row r="141" spans="1:34" ht="17" thickBot="1">
+    <row r="141" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="55"/>
       <c r="B141" s="30"/>
-      <c r="C141" s="73"/>
+      <c r="C141" s="95"/>
       <c r="D141" s="39">
         <v>8.0095393258425407</v>
       </c>
@@ -26148,220 +26151,220 @@
       <c r="F141" s="22">
         <v>7.0376413040000001</v>
       </c>
-      <c r="O141" s="94"/>
-      <c r="P141" s="94"/>
-      <c r="Q141" s="94"/>
-      <c r="R141" s="94"/>
-      <c r="S141" s="94"/>
-      <c r="T141" s="94"/>
-      <c r="U141" s="94"/>
-      <c r="V141" s="94"/>
-      <c r="W141" s="94"/>
-      <c r="X141" s="94"/>
-      <c r="Y141" s="94"/>
-      <c r="Z141" s="94"/>
-      <c r="AA141" s="94"/>
-      <c r="AB141" s="94"/>
-      <c r="AC141" s="94"/>
-      <c r="AD141" s="94"/>
-      <c r="AE141" s="94"/>
-      <c r="AF141" s="94"/>
+      <c r="O141" s="73"/>
+      <c r="P141" s="73"/>
+      <c r="Q141" s="73"/>
+      <c r="R141" s="73"/>
+      <c r="S141" s="73"/>
+      <c r="T141" s="73"/>
+      <c r="U141" s="73"/>
+      <c r="V141" s="73"/>
+      <c r="W141" s="73"/>
+      <c r="X141" s="73"/>
+      <c r="Y141" s="73"/>
+      <c r="Z141" s="73"/>
+      <c r="AA141" s="73"/>
+      <c r="AB141" s="73"/>
+      <c r="AC141" s="73"/>
+      <c r="AD141" s="73"/>
+      <c r="AE141" s="73"/>
+      <c r="AF141" s="73"/>
       <c r="AG141" s="31"/>
       <c r="AH141" s="55"/>
     </row>
-    <row r="142" spans="1:34">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142" s="55"/>
       <c r="B142" s="30"/>
-      <c r="O142" s="94"/>
-      <c r="P142" s="94"/>
-      <c r="Q142" s="94"/>
-      <c r="R142" s="94"/>
-      <c r="S142" s="94"/>
-      <c r="T142" s="94"/>
-      <c r="U142" s="94"/>
-      <c r="V142" s="94"/>
-      <c r="W142" s="94"/>
-      <c r="X142" s="94"/>
-      <c r="Y142" s="94"/>
-      <c r="Z142" s="94"/>
-      <c r="AA142" s="94"/>
-      <c r="AB142" s="94"/>
-      <c r="AC142" s="94"/>
-      <c r="AD142" s="94"/>
-      <c r="AE142" s="94"/>
-      <c r="AF142" s="94"/>
+      <c r="O142" s="73"/>
+      <c r="P142" s="73"/>
+      <c r="Q142" s="73"/>
+      <c r="R142" s="73"/>
+      <c r="S142" s="73"/>
+      <c r="T142" s="73"/>
+      <c r="U142" s="73"/>
+      <c r="V142" s="73"/>
+      <c r="W142" s="73"/>
+      <c r="X142" s="73"/>
+      <c r="Y142" s="73"/>
+      <c r="Z142" s="73"/>
+      <c r="AA142" s="73"/>
+      <c r="AB142" s="73"/>
+      <c r="AC142" s="73"/>
+      <c r="AD142" s="73"/>
+      <c r="AE142" s="73"/>
+      <c r="AF142" s="73"/>
       <c r="AG142" s="31"/>
       <c r="AH142" s="55"/>
     </row>
-    <row r="143" spans="1:34">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" s="55"/>
       <c r="B143" s="30"/>
-      <c r="O143" s="94"/>
-      <c r="P143" s="94"/>
-      <c r="Q143" s="94"/>
-      <c r="R143" s="94"/>
-      <c r="S143" s="94"/>
-      <c r="T143" s="94"/>
-      <c r="U143" s="94"/>
-      <c r="V143" s="94"/>
-      <c r="W143" s="94"/>
-      <c r="X143" s="94"/>
-      <c r="Y143" s="94"/>
-      <c r="Z143" s="94"/>
-      <c r="AA143" s="94"/>
-      <c r="AB143" s="94"/>
-      <c r="AC143" s="94"/>
-      <c r="AD143" s="94"/>
-      <c r="AE143" s="94"/>
-      <c r="AF143" s="94"/>
+      <c r="O143" s="73"/>
+      <c r="P143" s="73"/>
+      <c r="Q143" s="73"/>
+      <c r="R143" s="73"/>
+      <c r="S143" s="73"/>
+      <c r="T143" s="73"/>
+      <c r="U143" s="73"/>
+      <c r="V143" s="73"/>
+      <c r="W143" s="73"/>
+      <c r="X143" s="73"/>
+      <c r="Y143" s="73"/>
+      <c r="Z143" s="73"/>
+      <c r="AA143" s="73"/>
+      <c r="AB143" s="73"/>
+      <c r="AC143" s="73"/>
+      <c r="AD143" s="73"/>
+      <c r="AE143" s="73"/>
+      <c r="AF143" s="73"/>
       <c r="AG143" s="31"/>
       <c r="AH143" s="55"/>
     </row>
-    <row r="144" spans="1:34">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" s="55"/>
       <c r="B144" s="30"/>
-      <c r="O144" s="94"/>
-      <c r="P144" s="94"/>
-      <c r="Q144" s="94"/>
-      <c r="R144" s="94"/>
-      <c r="S144" s="94"/>
-      <c r="T144" s="94"/>
-      <c r="U144" s="94"/>
-      <c r="V144" s="94"/>
-      <c r="W144" s="94"/>
-      <c r="X144" s="94"/>
-      <c r="Y144" s="94"/>
-      <c r="Z144" s="94"/>
-      <c r="AA144" s="94"/>
-      <c r="AB144" s="94"/>
-      <c r="AC144" s="94"/>
-      <c r="AD144" s="94"/>
-      <c r="AE144" s="94"/>
-      <c r="AF144" s="94"/>
+      <c r="O144" s="73"/>
+      <c r="P144" s="73"/>
+      <c r="Q144" s="73"/>
+      <c r="R144" s="73"/>
+      <c r="S144" s="73"/>
+      <c r="T144" s="73"/>
+      <c r="U144" s="73"/>
+      <c r="V144" s="73"/>
+      <c r="W144" s="73"/>
+      <c r="X144" s="73"/>
+      <c r="Y144" s="73"/>
+      <c r="Z144" s="73"/>
+      <c r="AA144" s="73"/>
+      <c r="AB144" s="73"/>
+      <c r="AC144" s="73"/>
+      <c r="AD144" s="73"/>
+      <c r="AE144" s="73"/>
+      <c r="AF144" s="73"/>
       <c r="AG144" s="31"/>
       <c r="AH144" s="55"/>
     </row>
-    <row r="145" spans="1:34">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" s="55"/>
       <c r="B145" s="30"/>
-      <c r="O145" s="94"/>
-      <c r="P145" s="94"/>
-      <c r="Q145" s="94"/>
-      <c r="R145" s="94"/>
-      <c r="S145" s="94"/>
-      <c r="T145" s="94"/>
-      <c r="U145" s="94"/>
-      <c r="V145" s="94"/>
-      <c r="W145" s="94"/>
-      <c r="X145" s="94"/>
-      <c r="Y145" s="94"/>
-      <c r="Z145" s="94"/>
-      <c r="AA145" s="94"/>
-      <c r="AB145" s="94"/>
-      <c r="AC145" s="94"/>
-      <c r="AD145" s="94"/>
-      <c r="AE145" s="94"/>
-      <c r="AF145" s="94"/>
+      <c r="O145" s="73"/>
+      <c r="P145" s="73"/>
+      <c r="Q145" s="73"/>
+      <c r="R145" s="73"/>
+      <c r="S145" s="73"/>
+      <c r="T145" s="73"/>
+      <c r="U145" s="73"/>
+      <c r="V145" s="73"/>
+      <c r="W145" s="73"/>
+      <c r="X145" s="73"/>
+      <c r="Y145" s="73"/>
+      <c r="Z145" s="73"/>
+      <c r="AA145" s="73"/>
+      <c r="AB145" s="73"/>
+      <c r="AC145" s="73"/>
+      <c r="AD145" s="73"/>
+      <c r="AE145" s="73"/>
+      <c r="AF145" s="73"/>
       <c r="AG145" s="31"/>
       <c r="AH145" s="55"/>
     </row>
-    <row r="146" spans="1:34">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A146" s="55"/>
       <c r="B146" s="30"/>
-      <c r="O146" s="94"/>
-      <c r="P146" s="94"/>
-      <c r="Q146" s="94"/>
-      <c r="R146" s="94"/>
-      <c r="S146" s="94"/>
-      <c r="T146" s="94"/>
-      <c r="U146" s="94"/>
-      <c r="V146" s="94"/>
-      <c r="W146" s="94"/>
-      <c r="X146" s="94"/>
-      <c r="Y146" s="94"/>
-      <c r="Z146" s="94"/>
-      <c r="AA146" s="94"/>
-      <c r="AB146" s="94"/>
-      <c r="AC146" s="94"/>
-      <c r="AD146" s="94"/>
-      <c r="AE146" s="94"/>
-      <c r="AF146" s="94"/>
+      <c r="O146" s="73"/>
+      <c r="P146" s="73"/>
+      <c r="Q146" s="73"/>
+      <c r="R146" s="73"/>
+      <c r="S146" s="73"/>
+      <c r="T146" s="73"/>
+      <c r="U146" s="73"/>
+      <c r="V146" s="73"/>
+      <c r="W146" s="73"/>
+      <c r="X146" s="73"/>
+      <c r="Y146" s="73"/>
+      <c r="Z146" s="73"/>
+      <c r="AA146" s="73"/>
+      <c r="AB146" s="73"/>
+      <c r="AC146" s="73"/>
+      <c r="AD146" s="73"/>
+      <c r="AE146" s="73"/>
+      <c r="AF146" s="73"/>
       <c r="AG146" s="31"/>
       <c r="AH146" s="55"/>
     </row>
-    <row r="147" spans="1:34">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A147" s="55"/>
       <c r="B147" s="30"/>
-      <c r="O147" s="94"/>
-      <c r="P147" s="94"/>
-      <c r="Q147" s="94"/>
-      <c r="R147" s="94"/>
-      <c r="S147" s="94"/>
-      <c r="T147" s="94"/>
-      <c r="U147" s="94"/>
-      <c r="V147" s="94"/>
-      <c r="W147" s="94"/>
-      <c r="X147" s="94"/>
-      <c r="Y147" s="94"/>
-      <c r="Z147" s="94"/>
-      <c r="AA147" s="94"/>
-      <c r="AB147" s="94"/>
-      <c r="AC147" s="94"/>
-      <c r="AD147" s="94"/>
-      <c r="AE147" s="94"/>
-      <c r="AF147" s="94"/>
+      <c r="O147" s="73"/>
+      <c r="P147" s="73"/>
+      <c r="Q147" s="73"/>
+      <c r="R147" s="73"/>
+      <c r="S147" s="73"/>
+      <c r="T147" s="73"/>
+      <c r="U147" s="73"/>
+      <c r="V147" s="73"/>
+      <c r="W147" s="73"/>
+      <c r="X147" s="73"/>
+      <c r="Y147" s="73"/>
+      <c r="Z147" s="73"/>
+      <c r="AA147" s="73"/>
+      <c r="AB147" s="73"/>
+      <c r="AC147" s="73"/>
+      <c r="AD147" s="73"/>
+      <c r="AE147" s="73"/>
+      <c r="AF147" s="73"/>
       <c r="AG147" s="31"/>
       <c r="AH147" s="55"/>
     </row>
-    <row r="148" spans="1:34">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A148" s="55"/>
       <c r="B148" s="30"/>
-      <c r="O148" s="94"/>
-      <c r="P148" s="94"/>
-      <c r="Q148" s="94"/>
-      <c r="R148" s="94"/>
-      <c r="S148" s="94"/>
-      <c r="T148" s="94"/>
-      <c r="U148" s="94"/>
-      <c r="V148" s="94"/>
-      <c r="W148" s="94"/>
-      <c r="X148" s="94"/>
-      <c r="Y148" s="94"/>
-      <c r="Z148" s="94"/>
-      <c r="AA148" s="94"/>
-      <c r="AB148" s="94"/>
-      <c r="AC148" s="94"/>
-      <c r="AD148" s="94"/>
-      <c r="AE148" s="94"/>
-      <c r="AF148" s="94"/>
+      <c r="O148" s="73"/>
+      <c r="P148" s="73"/>
+      <c r="Q148" s="73"/>
+      <c r="R148" s="73"/>
+      <c r="S148" s="73"/>
+      <c r="T148" s="73"/>
+      <c r="U148" s="73"/>
+      <c r="V148" s="73"/>
+      <c r="W148" s="73"/>
+      <c r="X148" s="73"/>
+      <c r="Y148" s="73"/>
+      <c r="Z148" s="73"/>
+      <c r="AA148" s="73"/>
+      <c r="AB148" s="73"/>
+      <c r="AC148" s="73"/>
+      <c r="AD148" s="73"/>
+      <c r="AE148" s="73"/>
+      <c r="AF148" s="73"/>
       <c r="AG148" s="31"/>
       <c r="AH148" s="55"/>
     </row>
-    <row r="149" spans="1:34">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A149" s="55"/>
       <c r="B149" s="30"/>
-      <c r="O149" s="94"/>
-      <c r="P149" s="94"/>
-      <c r="Q149" s="94"/>
-      <c r="R149" s="94"/>
-      <c r="S149" s="94"/>
-      <c r="T149" s="94"/>
-      <c r="U149" s="94"/>
-      <c r="V149" s="94"/>
-      <c r="W149" s="94"/>
-      <c r="X149" s="94"/>
-      <c r="Y149" s="94"/>
-      <c r="Z149" s="94"/>
-      <c r="AA149" s="94"/>
-      <c r="AB149" s="94"/>
-      <c r="AC149" s="94"/>
-      <c r="AD149" s="94"/>
-      <c r="AE149" s="94"/>
-      <c r="AF149" s="94"/>
+      <c r="O149" s="73"/>
+      <c r="P149" s="73"/>
+      <c r="Q149" s="73"/>
+      <c r="R149" s="73"/>
+      <c r="S149" s="73"/>
+      <c r="T149" s="73"/>
+      <c r="U149" s="73"/>
+      <c r="V149" s="73"/>
+      <c r="W149" s="73"/>
+      <c r="X149" s="73"/>
+      <c r="Y149" s="73"/>
+      <c r="Z149" s="73"/>
+      <c r="AA149" s="73"/>
+      <c r="AB149" s="73"/>
+      <c r="AC149" s="73"/>
+      <c r="AD149" s="73"/>
+      <c r="AE149" s="73"/>
+      <c r="AF149" s="73"/>
       <c r="AG149" s="31"/>
       <c r="AH149" s="55"/>
     </row>
-    <row r="150" spans="1:34">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A150" s="55"/>
       <c r="B150" s="30"/>
       <c r="S150" s="4"/>
@@ -26371,7 +26374,7 @@
       <c r="AG150" s="31"/>
       <c r="AH150" s="55"/>
     </row>
-    <row r="151" spans="1:34">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A151" s="60"/>
       <c r="B151" s="33"/>
       <c r="C151" s="58"/>
@@ -26407,7 +26410,7 @@
       <c r="AG151" s="35"/>
       <c r="AH151" s="55"/>
     </row>
-    <row r="152" spans="1:34">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A152" s="55"/>
       <c r="B152" s="55"/>
       <c r="C152" s="55"/>
@@ -26443,7 +26446,7 @@
       <c r="AG152" s="55"/>
       <c r="AH152" s="55"/>
     </row>
-    <row r="153" spans="1:34">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A153" s="55"/>
       <c r="B153" s="55"/>
       <c r="C153" s="55"/>
@@ -26479,75 +26482,75 @@
       <c r="AG153" s="55"/>
       <c r="AH153" s="55"/>
     </row>
-    <row r="154" spans="1:34">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D154" s="4"/>
       <c r="S154" s="4"/>
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
     </row>
-    <row r="155" spans="1:34">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D155" s="4"/>
       <c r="S155" s="4"/>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
     </row>
-    <row r="156" spans="1:34">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:34">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:34">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:34">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:34">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="4:12">
+    <row r="161" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
     </row>
-    <row r="173" spans="4:12" ht="17" thickBot="1"/>
-    <row r="174" spans="4:12" ht="17" thickBot="1">
-      <c r="D174" s="82" t="s">
+    <row r="173" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D174" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E174" s="85" t="s">
+      <c r="E174" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="F174" s="86"/>
-      <c r="G174" s="86"/>
-      <c r="H174" s="86"/>
-      <c r="I174" s="86"/>
-      <c r="J174" s="86"/>
-      <c r="K174" s="86"/>
-      <c r="L174" s="87"/>
-    </row>
-    <row r="175" spans="4:12" ht="17" thickBot="1">
-      <c r="D175" s="83"/>
-      <c r="E175" s="88" t="s">
+      <c r="F174" s="82"/>
+      <c r="G174" s="82"/>
+      <c r="H174" s="82"/>
+      <c r="I174" s="82"/>
+      <c r="J174" s="82"/>
+      <c r="K174" s="82"/>
+      <c r="L174" s="83"/>
+    </row>
+    <row r="175" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D175" s="79"/>
+      <c r="E175" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F175" s="89"/>
-      <c r="G175" s="90" t="s">
+      <c r="F175" s="85"/>
+      <c r="G175" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="H175" s="91"/>
-      <c r="I175" s="92" t="s">
+      <c r="H175" s="87"/>
+      <c r="I175" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="J175" s="93"/>
-      <c r="K175" s="75" t="s">
+      <c r="J175" s="89"/>
+      <c r="K175" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="L175" s="77"/>
-    </row>
-    <row r="176" spans="4:12" ht="17" thickBot="1">
-      <c r="D176" s="84"/>
+      <c r="L175" s="91"/>
+    </row>
+    <row r="176" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D176" s="80"/>
       <c r="E176" s="11" t="s">
         <v>96</v>
       </c>
@@ -26573,7 +26576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="177" spans="4:12">
+    <row r="177" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D177" s="8" t="s">
         <v>98</v>
       </c>
@@ -26602,7 +26605,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="4:12">
+    <row r="178" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D178" s="8" t="s">
         <v>99</v>
       </c>
@@ -26631,7 +26634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="4:12">
+    <row r="179" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D179" s="8" t="s">
         <v>100</v>
       </c>
@@ -26660,25 +26663,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="4:12">
+    <row r="180" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D180" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E180" s="103">
+      <c r="E180" s="72">
         <f>AVERAGE(F100:F109)</f>
         <v>8.5647244439999994</v>
       </c>
       <c r="F180" s="16">
         <v>1.0369999999999999</v>
       </c>
-      <c r="G180" s="103">
+      <c r="G180" s="72">
         <f>AVERAGE(E100:E109)</f>
         <v>8.3748170639863453</v>
       </c>
       <c r="H180" s="16">
         <v>0.73099999999999998</v>
       </c>
-      <c r="I180" s="103">
+      <c r="I180" s="72">
         <f>AVERAGE(D100:D109)</f>
         <v>8.9752673868974675</v>
       </c>
@@ -26692,7 +26695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="4:12" ht="17" thickBot="1">
+    <row r="181" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D181" s="9" t="s">
         <v>101</v>
       </c>
@@ -26726,6 +26729,11 @@
     <sortCondition ref="D152:D161"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="C116:C125"/>
+    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="I116:I125"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="C130:F130"/>
     <mergeCell ref="O94:AF149"/>
     <mergeCell ref="I41:Z79"/>
     <mergeCell ref="B26:D26"/>
@@ -26742,11 +26750,6 @@
     <mergeCell ref="I98:L98"/>
     <mergeCell ref="I100:I109"/>
     <mergeCell ref="C132:C141"/>
-    <mergeCell ref="C116:C125"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="I116:I125"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="C130:F130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -26762,7 +26765,7 @@
       <selection activeCell="AP59" sqref="AP59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
@@ -26799,7 +26802,7 @@
     <col min="53" max="53" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -26966,7 +26969,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -27163,7 +27166,7 @@
         <v>0.2475763653305767</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -27360,7 +27363,7 @@
         <v>0.23111919735332251</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -27557,7 +27560,7 @@
         <v>0.21416536176315637</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -27754,7 +27757,7 @@
         <v>0.23348229018824959</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -27951,7 +27954,7 @@
         <v>0.20909845979614952</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -28148,7 +28151,7 @@
         <v>0.21426147360835884</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -28345,7 +28348,7 @@
         <v>0.21886144191842846</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -28542,7 +28545,7 @@
         <v>0.27223102864348764</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -28739,7 +28742,7 @@
         <v>0.23477985374119326</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -28936,7 +28939,7 @@
         <v>0.29174127650623366</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -29133,7 +29136,7 @@
         <v>0.42518900757086681</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -29330,7 +29333,7 @@
         <v>0.60930217060608638</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -29527,7 +29530,7 @@
         <v>0.60169886598265609</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -29724,7 +29727,7 @@
         <v>0.51381524003756085</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -29921,7 +29924,7 @@
         <v>0.62739663981215332</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -30118,7 +30121,7 @@
         <v>0.53282473019461774</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -30315,7 +30318,7 @@
         <v>0.55523767752401409</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -30512,7 +30515,7 @@
         <v>0.66189851162483704</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -30709,7 +30712,7 @@
         <v>0.82196302041273217</v>
       </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -30906,7 +30909,7 @@
         <v>0.5805919166073672</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -31103,7 +31106,7 @@
         <v>0.69454355425840697</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -31300,7 +31303,7 @@
         <v>0.89151772525249251</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -31497,7 +31500,7 @@
         <v>0.81483209702745141</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -31694,7 +31697,7 @@
         <v>0.82312204285198676</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -31891,7 +31894,7 @@
         <v>0.78895735168890146</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -32088,7 +32091,7 @@
         <v>0.82097368887885436</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -32285,7 +32288,7 @@
         <v>0.82925214690594162</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -32482,7 +32485,7 @@
         <v>0.74949869696810389</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -32679,7 +32682,7 @@
         <v>0.82794505017367814</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -32876,7 +32879,7 @@
         <v>0.91189378765640328</v>
       </c>
     </row>
-    <row r="36" spans="8:29">
+    <row r="36" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
@@ -32900,7 +32903,7 @@
       <c r="AB36" s="29"/>
       <c r="AC36" s="29"/>
     </row>
-    <row r="37" spans="8:29">
+    <row r="37" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
@@ -32924,7 +32927,7 @@
       <c r="AB37" s="29"/>
       <c r="AC37" s="29"/>
     </row>
-    <row r="38" spans="8:29">
+    <row r="38" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
@@ -32948,7 +32951,7 @@
       <c r="AB38" s="29"/>
       <c r="AC38" s="29"/>
     </row>
-    <row r="39" spans="8:29">
+    <row r="39" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
@@ -32972,7 +32975,7 @@
       <c r="AB39" s="29"/>
       <c r="AC39" s="29"/>
     </row>
-    <row r="40" spans="8:29">
+    <row r="40" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
@@ -32996,7 +32999,7 @@
       <c r="AB40" s="29"/>
       <c r="AC40" s="29"/>
     </row>
-    <row r="41" spans="8:29">
+    <row r="41" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
@@ -33020,7 +33023,7 @@
       <c r="AB41" s="29"/>
       <c r="AC41" s="29"/>
     </row>
-    <row r="42" spans="8:29">
+    <row r="42" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
@@ -33057,7 +33060,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
@@ -33072,7 +33075,7 @@
     <col min="15" max="15" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -33119,7 +33122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -33166,7 +33169,7 @@
         <v>0.23673167488491567</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -33213,7 +33216,7 @@
         <v>0.59299177803728909</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -33260,7 +33263,7 @@
         <v>0.81525361416622211</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -33307,26 +33310,26 @@
         <v>0.54832568902947565</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="98" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="99"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="100"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>13</v>
       </c>
@@ -33346,7 +33349,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
         <v>25</v>
       </c>
@@ -33367,7 +33370,7 @@
         <v>31.677446300000003</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
         <v>26</v>
       </c>
@@ -33388,7 +33391,7 @@
         <v>75.932819899999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
         <v>71</v>
       </c>
@@ -33409,76 +33412,76 @@
         <v>102.1389788</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-    </row>
-    <row r="34" spans="1:25" ht="17" thickBot="1">
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-    </row>
-    <row r="35" spans="1:25" ht="17" thickBot="1">
-      <c r="B35" s="78" t="s">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+    </row>
+    <row r="34" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+    </row>
+    <row r="35" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="80"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-    </row>
-    <row r="36" spans="1:25" ht="17" thickBot="1">
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+    </row>
+    <row r="36" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>82</v>
       </c>
@@ -33491,28 +33494,28 @@
       <c r="E36" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="74" t="s">
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="93" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="36">
@@ -33527,28 +33530,28 @@
       <c r="E37" s="16">
         <v>0.24757636999999999</v>
       </c>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-    </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="94"/>
       <c r="B38" s="36">
         <v>1.4395789999999999</v>
       </c>
@@ -33561,28 +33564,28 @@
       <c r="E38" s="16">
         <v>0.2311192</v>
       </c>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="W38" s="94"/>
-      <c r="X38" s="94"/>
-      <c r="Y38" s="94"/>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="72"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="94"/>
       <c r="B39" s="36">
         <v>1.370614</v>
       </c>
@@ -33595,28 +33598,28 @@
       <c r="E39" s="16">
         <v>0.21416536</v>
       </c>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="W39" s="94"/>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="72"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="94"/>
       <c r="B40" s="36">
         <v>1.457795</v>
       </c>
@@ -33630,28 +33633,28 @@
         <v>0.23348229000000001</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
-      <c r="W40" s="94"/>
-      <c r="X40" s="94"/>
-      <c r="Y40" s="94"/>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="72"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="94"/>
       <c r="B41" s="36">
         <v>1.4586680000000001</v>
       </c>
@@ -33665,28 +33668,28 @@
         <v>0.20909846000000001</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-    </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="72"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="94"/>
       <c r="B42" s="36">
         <v>1.3503940000000001</v>
       </c>
@@ -33700,28 +33703,28 @@
         <v>0.21426147000000001</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-    </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="72"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="94"/>
       <c r="B43" s="36">
         <v>1.380927</v>
       </c>
@@ -33735,28 +33738,28 @@
         <v>0.21886143999999999</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-    </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="72"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="94"/>
       <c r="B44" s="36">
         <v>1.3503909999999999</v>
       </c>
@@ -33770,28 +33773,28 @@
         <v>0.27223102999999998</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-    </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="72"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="94"/>
       <c r="B45" s="36">
         <v>1.4358420000000001</v>
       </c>
@@ -33805,28 +33808,28 @@
         <v>0.23477985000000001</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-    </row>
-    <row r="46" spans="1:25" ht="17" thickBot="1">
-      <c r="A46" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+    </row>
+    <row r="46" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="95"/>
       <c r="B46" s="44">
         <v>1.7864739999999999</v>
       </c>
@@ -33840,97 +33843,97 @@
         <v>0.29174127999999999</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F47" s="4"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-    </row>
-    <row r="48" spans="1:25" ht="17" thickBot="1">
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="B49" s="100" t="s">
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+    </row>
+    <row r="48" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B49" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="102"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-    </row>
-    <row r="50" spans="1:25" ht="17" thickBot="1">
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="103"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+    </row>
+    <row r="50" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
         <v>82</v>
       </c>
@@ -33943,28 +33946,28 @@
       <c r="E50" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-    </row>
-    <row r="51" spans="1:25">
-      <c r="A51" s="74" t="s">
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="93" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="36">
@@ -33979,28 +33982,28 @@
       <c r="E51" s="16">
         <v>0.69454355000000001</v>
       </c>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-    </row>
-    <row r="52" spans="1:25">
-      <c r="A52" s="72"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="94"/>
       <c r="B52" s="36">
         <v>2.168895</v>
       </c>
@@ -34013,28 +34016,28 @@
       <c r="E52" s="16">
         <v>0.89151773000000001</v>
       </c>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-    </row>
-    <row r="53" spans="1:25">
-      <c r="A53" s="72"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="94"/>
       <c r="B53" s="36">
         <v>2.1348419999999999</v>
       </c>
@@ -34047,28 +34050,28 @@
       <c r="E53" s="16">
         <v>0.81483209999999995</v>
       </c>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-    </row>
-    <row r="54" spans="1:25">
-      <c r="A54" s="72"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" s="94"/>
       <c r="B54" s="36">
         <v>2.2640039999999999</v>
       </c>
@@ -34081,28 +34084,28 @@
       <c r="E54" s="16">
         <v>0.82312204</v>
       </c>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-    </row>
-    <row r="55" spans="1:25">
-      <c r="A55" s="72"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="94"/>
       <c r="B55" s="36">
         <v>2.1048809999999998</v>
       </c>
@@ -34115,28 +34118,28 @@
       <c r="E55" s="16">
         <v>0.78895735</v>
       </c>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="94"/>
-      <c r="T55" s="94"/>
-      <c r="U55" s="94"/>
-      <c r="V55" s="94"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="94"/>
-      <c r="Y55" s="94"/>
-    </row>
-    <row r="56" spans="1:25">
-      <c r="A56" s="72"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" s="94"/>
       <c r="B56" s="36">
         <v>2.2255090000000002</v>
       </c>
@@ -34149,28 +34152,28 @@
       <c r="E56" s="16">
         <v>0.82097368999999998</v>
       </c>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="94"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
-      <c r="W56" s="94"/>
-      <c r="X56" s="94"/>
-      <c r="Y56" s="94"/>
-    </row>
-    <row r="57" spans="1:25">
-      <c r="A57" s="72"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" s="94"/>
       <c r="B57" s="36">
         <v>2.16282</v>
       </c>
@@ -34183,28 +34186,28 @@
       <c r="E57" s="16">
         <v>0.82925214999999997</v>
       </c>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
-      <c r="X57" s="94"/>
-      <c r="Y57" s="94"/>
-    </row>
-    <row r="58" spans="1:25">
-      <c r="A58" s="72"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="94"/>
       <c r="B58" s="36">
         <v>2.0728420000000001</v>
       </c>
@@ -34217,28 +34220,28 @@
       <c r="E58" s="16">
         <v>0.74949869999999996</v>
       </c>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="94"/>
-      <c r="T58" s="94"/>
-      <c r="U58" s="94"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="94"/>
-      <c r="Y58" s="94"/>
-    </row>
-    <row r="59" spans="1:25">
-      <c r="A59" s="72"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73"/>
+      <c r="W58" s="73"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="73"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="94"/>
       <c r="B59" s="36">
         <v>2.219211</v>
       </c>
@@ -34251,28 +34254,28 @@
       <c r="E59" s="16">
         <v>0.82794504999999996</v>
       </c>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="94"/>
-      <c r="T59" s="94"/>
-      <c r="U59" s="94"/>
-      <c r="V59" s="94"/>
-      <c r="W59" s="94"/>
-      <c r="X59" s="94"/>
-      <c r="Y59" s="94"/>
-    </row>
-    <row r="60" spans="1:25" ht="17" thickBot="1">
-      <c r="A60" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="73"/>
+    </row>
+    <row r="60" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="95"/>
       <c r="B60" s="44">
         <v>2.3790680000000002</v>
       </c>
@@ -34285,119 +34288,119 @@
       <c r="E60" s="18">
         <v>0.91189379000000004</v>
       </c>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="94"/>
-      <c r="T60" s="94"/>
-      <c r="U60" s="94"/>
-      <c r="V60" s="94"/>
-      <c r="W60" s="94"/>
-      <c r="X60" s="94"/>
-      <c r="Y60" s="94"/>
-    </row>
-    <row r="61" spans="1:25">
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="94"/>
-      <c r="O61" s="94"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="94"/>
-      <c r="R61" s="94"/>
-      <c r="S61" s="94"/>
-      <c r="T61" s="94"/>
-      <c r="U61" s="94"/>
-      <c r="V61" s="94"/>
-      <c r="W61" s="94"/>
-      <c r="X61" s="94"/>
-      <c r="Y61" s="94"/>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="73"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="94"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="94"/>
-      <c r="T62" s="94"/>
-      <c r="U62" s="94"/>
-      <c r="V62" s="94"/>
-      <c r="W62" s="94"/>
-      <c r="X62" s="94"/>
-      <c r="Y62" s="94"/>
-    </row>
-    <row r="63" spans="1:25" ht="17" thickBot="1">
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="94"/>
-      <c r="M63" s="94"/>
-      <c r="N63" s="94"/>
-      <c r="O63" s="94"/>
-      <c r="P63" s="94"/>
-      <c r="Q63" s="94"/>
-      <c r="R63" s="94"/>
-      <c r="S63" s="94"/>
-      <c r="T63" s="94"/>
-      <c r="U63" s="94"/>
-      <c r="V63" s="94"/>
-      <c r="W63" s="94"/>
-      <c r="X63" s="94"/>
-      <c r="Y63" s="94"/>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="73"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="73"/>
+    </row>
+    <row r="63" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="73"/>
+      <c r="W63" s="73"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="73"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B64" s="68" t="s">
         <v>133</v>
       </c>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="70"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="94"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="94"/>
-      <c r="M64" s="94"/>
-      <c r="N64" s="94"/>
-      <c r="O64" s="94"/>
-      <c r="P64" s="94"/>
-      <c r="Q64" s="94"/>
-      <c r="R64" s="94"/>
-      <c r="S64" s="94"/>
-      <c r="T64" s="94"/>
-      <c r="U64" s="94"/>
-      <c r="V64" s="94"/>
-      <c r="W64" s="94"/>
-      <c r="X64" s="94"/>
-      <c r="Y64" s="94"/>
-    </row>
-    <row r="65" spans="1:25" ht="17" thickBot="1">
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="73"/>
+      <c r="W64" s="73"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="73"/>
+    </row>
+    <row r="65" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="66" t="s">
         <v>82</v>
       </c>
@@ -34410,28 +34413,28 @@
       <c r="E65" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
-      <c r="O65" s="94"/>
-      <c r="P65" s="94"/>
-      <c r="Q65" s="94"/>
-      <c r="R65" s="94"/>
-      <c r="S65" s="94"/>
-      <c r="T65" s="94"/>
-      <c r="U65" s="94"/>
-      <c r="V65" s="94"/>
-      <c r="W65" s="94"/>
-      <c r="X65" s="94"/>
-      <c r="Y65" s="94"/>
-    </row>
-    <row r="66" spans="1:25">
-      <c r="A66" s="74" t="s">
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="73"/>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A66" s="93" t="s">
         <v>87</v>
       </c>
       <c r="B66" s="36">
@@ -34447,28 +34450,28 @@
         <v>0.42518900999999998</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="94"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="94"/>
-      <c r="M66" s="94"/>
-      <c r="N66" s="94"/>
-      <c r="O66" s="94"/>
-      <c r="P66" s="94"/>
-      <c r="Q66" s="94"/>
-      <c r="R66" s="94"/>
-      <c r="S66" s="94"/>
-      <c r="T66" s="94"/>
-      <c r="U66" s="94"/>
-      <c r="V66" s="94"/>
-      <c r="W66" s="94"/>
-      <c r="X66" s="94"/>
-      <c r="Y66" s="94"/>
-    </row>
-    <row r="67" spans="1:25">
-      <c r="A67" s="72"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="73"/>
+      <c r="U66" s="73"/>
+      <c r="V66" s="73"/>
+      <c r="W66" s="73"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="73"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" s="94"/>
       <c r="B67" s="36">
         <v>1.9180889999999999</v>
       </c>
@@ -34481,28 +34484,28 @@
       <c r="E67" s="16">
         <v>0.60930216999999998</v>
       </c>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="94"/>
-      <c r="S67" s="94"/>
-      <c r="T67" s="94"/>
-      <c r="U67" s="94"/>
-      <c r="V67" s="94"/>
-      <c r="W67" s="94"/>
-      <c r="X67" s="94"/>
-      <c r="Y67" s="94"/>
-    </row>
-    <row r="68" spans="1:25">
-      <c r="A68" s="72"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="73"/>
+      <c r="U67" s="73"/>
+      <c r="V67" s="73"/>
+      <c r="W67" s="73"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="73"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68" s="94"/>
       <c r="B68" s="36">
         <v>2.1195210000000002</v>
       </c>
@@ -34515,28 +34518,28 @@
       <c r="E68" s="16">
         <v>0.60169887</v>
       </c>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="94"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="94"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="94"/>
-      <c r="Q68" s="94"/>
-      <c r="R68" s="94"/>
-      <c r="S68" s="94"/>
-      <c r="T68" s="94"/>
-      <c r="U68" s="94"/>
-      <c r="V68" s="94"/>
-      <c r="W68" s="94"/>
-      <c r="X68" s="94"/>
-      <c r="Y68" s="94"/>
-    </row>
-    <row r="69" spans="1:25">
-      <c r="A69" s="72"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="73"/>
+      <c r="T68" s="73"/>
+      <c r="U68" s="73"/>
+      <c r="V68" s="73"/>
+      <c r="W68" s="73"/>
+      <c r="X68" s="73"/>
+      <c r="Y68" s="73"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69" s="94"/>
       <c r="B69" s="36">
         <v>1.8222799999999999</v>
       </c>
@@ -34549,28 +34552,28 @@
       <c r="E69" s="16">
         <v>0.51381524000000001</v>
       </c>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="94"/>
-      <c r="O69" s="94"/>
-      <c r="P69" s="94"/>
-      <c r="Q69" s="94"/>
-      <c r="R69" s="94"/>
-      <c r="S69" s="94"/>
-      <c r="T69" s="94"/>
-      <c r="U69" s="94"/>
-      <c r="V69" s="94"/>
-      <c r="W69" s="94"/>
-      <c r="X69" s="94"/>
-      <c r="Y69" s="94"/>
-    </row>
-    <row r="70" spans="1:25">
-      <c r="A70" s="72"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="73"/>
+      <c r="U69" s="73"/>
+      <c r="V69" s="73"/>
+      <c r="W69" s="73"/>
+      <c r="X69" s="73"/>
+      <c r="Y69" s="73"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" s="94"/>
       <c r="B70" s="36">
         <v>2.2347549999999998</v>
       </c>
@@ -34583,28 +34586,28 @@
       <c r="E70" s="16">
         <v>0.62739663999999995</v>
       </c>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
-      <c r="O70" s="94"/>
-      <c r="P70" s="94"/>
-      <c r="Q70" s="94"/>
-      <c r="R70" s="94"/>
-      <c r="S70" s="94"/>
-      <c r="T70" s="94"/>
-      <c r="U70" s="94"/>
-      <c r="V70" s="94"/>
-      <c r="W70" s="94"/>
-      <c r="X70" s="94"/>
-      <c r="Y70" s="94"/>
-    </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="72"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="U70" s="73"/>
+      <c r="V70" s="73"/>
+      <c r="W70" s="73"/>
+      <c r="X70" s="73"/>
+      <c r="Y70" s="73"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" s="94"/>
       <c r="B71" s="36">
         <v>1.7351049999999999</v>
       </c>
@@ -34617,28 +34620,28 @@
       <c r="E71" s="16">
         <v>0.53282472999999997</v>
       </c>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="94"/>
-      <c r="T71" s="94"/>
-      <c r="U71" s="94"/>
-      <c r="V71" s="94"/>
-      <c r="W71" s="94"/>
-      <c r="X71" s="94"/>
-      <c r="Y71" s="94"/>
-    </row>
-    <row r="72" spans="1:25">
-      <c r="A72" s="72"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="73"/>
+      <c r="V71" s="73"/>
+      <c r="W71" s="73"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="73"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" s="94"/>
       <c r="B72" s="36">
         <v>1.8655459999999999</v>
       </c>
@@ -34651,28 +34654,28 @@
       <c r="E72" s="16">
         <v>0.55523767999999996</v>
       </c>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="94"/>
-      <c r="U72" s="94"/>
-      <c r="V72" s="94"/>
-      <c r="W72" s="94"/>
-      <c r="X72" s="94"/>
-      <c r="Y72" s="94"/>
-    </row>
-    <row r="73" spans="1:25">
-      <c r="A73" s="72"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="73"/>
+      <c r="V72" s="73"/>
+      <c r="W72" s="73"/>
+      <c r="X72" s="73"/>
+      <c r="Y72" s="73"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A73" s="94"/>
       <c r="B73" s="36">
         <v>2.049436</v>
       </c>
@@ -34685,28 +34688,28 @@
       <c r="E73" s="16">
         <v>0.66189851</v>
       </c>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
-      <c r="O73" s="94"/>
-      <c r="P73" s="94"/>
-      <c r="Q73" s="94"/>
-      <c r="R73" s="94"/>
-      <c r="S73" s="94"/>
-      <c r="T73" s="94"/>
-      <c r="U73" s="94"/>
-      <c r="V73" s="94"/>
-      <c r="W73" s="94"/>
-      <c r="X73" s="94"/>
-      <c r="Y73" s="94"/>
-    </row>
-    <row r="74" spans="1:25">
-      <c r="A74" s="72"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="W73" s="73"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="73"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A74" s="94"/>
       <c r="B74" s="36">
         <v>2.2067950000000001</v>
       </c>
@@ -34719,28 +34722,28 @@
       <c r="E74" s="16">
         <v>0.82196301999999999</v>
       </c>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="94"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
-      <c r="O74" s="94"/>
-      <c r="P74" s="94"/>
-      <c r="Q74" s="94"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="94"/>
-      <c r="T74" s="94"/>
-      <c r="U74" s="94"/>
-      <c r="V74" s="94"/>
-      <c r="W74" s="94"/>
-      <c r="X74" s="94"/>
-      <c r="Y74" s="94"/>
-    </row>
-    <row r="75" spans="1:25" ht="17" thickBot="1">
-      <c r="A75" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
+      <c r="V74" s="73"/>
+      <c r="W74" s="73"/>
+      <c r="X74" s="73"/>
+      <c r="Y74" s="73"/>
+    </row>
+    <row r="75" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="95"/>
       <c r="B75" s="44">
         <v>1.8804449999999999</v>
       </c>
@@ -34753,189 +34756,189 @@
       <c r="E75" s="18">
         <v>0.58059192000000004</v>
       </c>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-      <c r="O75" s="94"/>
-      <c r="P75" s="94"/>
-      <c r="Q75" s="94"/>
-      <c r="R75" s="94"/>
-      <c r="S75" s="94"/>
-      <c r="T75" s="94"/>
-      <c r="U75" s="94"/>
-      <c r="V75" s="94"/>
-      <c r="W75" s="94"/>
-      <c r="X75" s="94"/>
-      <c r="Y75" s="94"/>
-    </row>
-    <row r="76" spans="1:25">
-      <c r="G76" s="94"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
-      <c r="O76" s="94"/>
-      <c r="P76" s="94"/>
-      <c r="Q76" s="94"/>
-      <c r="R76" s="94"/>
-      <c r="S76" s="94"/>
-      <c r="T76" s="94"/>
-      <c r="U76" s="94"/>
-      <c r="V76" s="94"/>
-      <c r="W76" s="94"/>
-      <c r="X76" s="94"/>
-      <c r="Y76" s="94"/>
-    </row>
-    <row r="77" spans="1:25">
-      <c r="G77" s="94"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
-      <c r="O77" s="94"/>
-      <c r="P77" s="94"/>
-      <c r="Q77" s="94"/>
-      <c r="R77" s="94"/>
-      <c r="S77" s="94"/>
-      <c r="T77" s="94"/>
-      <c r="U77" s="94"/>
-      <c r="V77" s="94"/>
-      <c r="W77" s="94"/>
-      <c r="X77" s="94"/>
-      <c r="Y77" s="94"/>
-    </row>
-    <row r="78" spans="1:25">
-      <c r="G78" s="94"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
-      <c r="O78" s="94"/>
-      <c r="P78" s="94"/>
-      <c r="Q78" s="94"/>
-      <c r="R78" s="94"/>
-      <c r="S78" s="94"/>
-      <c r="T78" s="94"/>
-      <c r="U78" s="94"/>
-      <c r="V78" s="94"/>
-      <c r="W78" s="94"/>
-      <c r="X78" s="94"/>
-      <c r="Y78" s="94"/>
-    </row>
-    <row r="79" spans="1:25">
-      <c r="G79" s="94"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="94"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="94"/>
-      <c r="O79" s="94"/>
-      <c r="P79" s="94"/>
-      <c r="Q79" s="94"/>
-      <c r="R79" s="94"/>
-      <c r="S79" s="94"/>
-      <c r="T79" s="94"/>
-      <c r="U79" s="94"/>
-      <c r="V79" s="94"/>
-      <c r="W79" s="94"/>
-      <c r="X79" s="94"/>
-      <c r="Y79" s="94"/>
-    </row>
-    <row r="80" spans="1:25">
-      <c r="G80" s="94"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="94"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="94"/>
-      <c r="M80" s="94"/>
-      <c r="N80" s="94"/>
-      <c r="O80" s="94"/>
-      <c r="P80" s="94"/>
-      <c r="Q80" s="94"/>
-      <c r="R80" s="94"/>
-      <c r="S80" s="94"/>
-      <c r="T80" s="94"/>
-      <c r="U80" s="94"/>
-      <c r="V80" s="94"/>
-      <c r="W80" s="94"/>
-      <c r="X80" s="94"/>
-      <c r="Y80" s="94"/>
-    </row>
-    <row r="81" spans="1:25">
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="94"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
-      <c r="O81" s="94"/>
-      <c r="P81" s="94"/>
-      <c r="Q81" s="94"/>
-      <c r="R81" s="94"/>
-      <c r="S81" s="94"/>
-      <c r="T81" s="94"/>
-      <c r="U81" s="94"/>
-      <c r="V81" s="94"/>
-      <c r="W81" s="94"/>
-      <c r="X81" s="94"/>
-      <c r="Y81" s="94"/>
-    </row>
-    <row r="82" spans="1:25">
-      <c r="G82" s="94"/>
-      <c r="H82" s="94"/>
-      <c r="I82" s="94"/>
-      <c r="J82" s="94"/>
-      <c r="K82" s="94"/>
-      <c r="L82" s="94"/>
-      <c r="M82" s="94"/>
-      <c r="N82" s="94"/>
-      <c r="O82" s="94"/>
-      <c r="P82" s="94"/>
-      <c r="Q82" s="94"/>
-      <c r="R82" s="94"/>
-      <c r="S82" s="94"/>
-      <c r="T82" s="94"/>
-      <c r="U82" s="94"/>
-      <c r="V82" s="94"/>
-      <c r="W82" s="94"/>
-      <c r="X82" s="94"/>
-      <c r="Y82" s="94"/>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="73"/>
+      <c r="W75" s="73"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="73"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="73"/>
+      <c r="V76" s="73"/>
+      <c r="W76" s="73"/>
+      <c r="X76" s="73"/>
+      <c r="Y76" s="73"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="73"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+      <c r="V77" s="73"/>
+      <c r="W77" s="73"/>
+      <c r="X77" s="73"/>
+      <c r="Y77" s="73"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
+      <c r="U78" s="73"/>
+      <c r="V78" s="73"/>
+      <c r="W78" s="73"/>
+      <c r="X78" s="73"/>
+      <c r="Y78" s="73"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="73"/>
+      <c r="T79" s="73"/>
+      <c r="U79" s="73"/>
+      <c r="V79" s="73"/>
+      <c r="W79" s="73"/>
+      <c r="X79" s="73"/>
+      <c r="Y79" s="73"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+      <c r="U80" s="73"/>
+      <c r="V80" s="73"/>
+      <c r="W80" s="73"/>
+      <c r="X80" s="73"/>
+      <c r="Y80" s="73"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="73"/>
+      <c r="M81" s="73"/>
+      <c r="N81" s="73"/>
+      <c r="O81" s="73"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="73"/>
+      <c r="T81" s="73"/>
+      <c r="U81" s="73"/>
+      <c r="V81" s="73"/>
+      <c r="W81" s="73"/>
+      <c r="X81" s="73"/>
+      <c r="Y81" s="73"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="73"/>
+      <c r="U82" s="73"/>
+      <c r="V82" s="73"/>
+      <c r="W82" s="73"/>
+      <c r="X82" s="73"/>
+      <c r="Y82" s="73"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="71"/>
       <c r="C154" s="71"/>
       <c r="D154" s="71"/>
